--- a/script/mOffload.xlsx
+++ b/script/mOffload.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\BandwidthUNcertinity\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357E25EF-9509-4C52-AEF4-BBE3FB8B30C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23F362A-E714-438D-B2B4-82A9F50AD6C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{60046224-DB48-4D55-9DB3-CD82E3B77A28}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{60046224-DB48-4D55-9DB3-CD82E3B77A28}"/>
   </bookViews>
   <sheets>
     <sheet name="small_t0" sheetId="3" r:id="rId1"/>
+    <sheet name="tC" sheetId="4" r:id="rId2"/>
+    <sheet name="b2" sheetId="5" r:id="rId3"/>
+    <sheet name="t1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="1">
   <si>
     <t>./mOffloading</t>
   </si>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED42AF60-AB6E-40CA-87F9-E205799F0A91}">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,25 +401,25 @@
         <v>50000</v>
       </c>
       <c r="C1">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D1">
         <v>30</v>
       </c>
       <c r="E1">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J1">
         <v>1</v>
@@ -433,25 +436,25 @@
         <v>50000</v>
       </c>
       <c r="C2">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D2">
         <v>60</v>
       </c>
       <c r="E2">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -468,25 +471,25 @@
         <v>50000</v>
       </c>
       <c r="C3">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D3">
         <v>90</v>
       </c>
       <c r="E3">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -503,25 +506,25 @@
         <v>50000</v>
       </c>
       <c r="C4">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D4">
         <v>120</v>
       </c>
       <c r="E4">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -538,25 +541,25 @@
         <v>50000</v>
       </c>
       <c r="C5">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D5">
         <v>150</v>
       </c>
       <c r="E5">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -573,25 +576,25 @@
         <v>50000</v>
       </c>
       <c r="C6">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D6">
         <v>180</v>
       </c>
       <c r="E6">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -608,25 +611,25 @@
         <v>50000</v>
       </c>
       <c r="C7">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D7">
         <v>210</v>
       </c>
       <c r="E7">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -643,25 +646,25 @@
         <v>50000</v>
       </c>
       <c r="C8">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D8">
         <v>240</v>
       </c>
       <c r="E8">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F8">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -678,25 +681,25 @@
         <v>50000</v>
       </c>
       <c r="C9">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D9">
         <v>270</v>
       </c>
       <c r="E9">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -713,25 +716,25 @@
         <v>50000</v>
       </c>
       <c r="C10">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D10">
         <v>300</v>
       </c>
       <c r="E10">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G10">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -748,25 +751,25 @@
         <v>50000</v>
       </c>
       <c r="C11">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D11">
         <v>330</v>
       </c>
       <c r="E11">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -783,25 +786,25 @@
         <v>50000</v>
       </c>
       <c r="C12">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D12">
         <v>360</v>
       </c>
       <c r="E12">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G12">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -818,25 +821,25 @@
         <v>50000</v>
       </c>
       <c r="C13">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D13">
         <v>390</v>
       </c>
       <c r="E13">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F13">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G13">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -853,25 +856,25 @@
         <v>50000</v>
       </c>
       <c r="C14">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D14">
         <v>420</v>
       </c>
       <c r="E14">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F14">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G14">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -888,25 +891,25 @@
         <v>50000</v>
       </c>
       <c r="C15">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D15">
         <v>450</v>
       </c>
       <c r="E15">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G15">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -923,25 +926,25 @@
         <v>50000</v>
       </c>
       <c r="C16">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D16">
         <v>480</v>
       </c>
       <c r="E16">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F16">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G16">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -950,6 +953,41 @@
         <v>250</v>
       </c>
     </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>50000</v>
+      </c>
+      <c r="C17">
+        <v>480</v>
+      </c>
+      <c r="D17">
+        <v>510</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>250</v>
+      </c>
+    </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
@@ -958,28 +996,28 @@
         <v>50000</v>
       </c>
       <c r="C18">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>540</v>
       </c>
       <c r="E18">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>250</v>
@@ -993,28 +1031,28 @@
         <v>50000</v>
       </c>
       <c r="C19">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D19">
-        <v>60</v>
+        <v>570</v>
       </c>
       <c r="E19">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G19">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>250</v>
@@ -1028,65 +1066,30 @@
         <v>50000</v>
       </c>
       <c r="C20">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D20">
-        <v>90</v>
+        <v>600</v>
       </c>
       <c r="E20">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G20">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>50000</v>
-      </c>
-      <c r="C21">
-        <v>180</v>
-      </c>
-      <c r="D21">
-        <v>120</v>
-      </c>
-      <c r="E21">
-        <v>120</v>
-      </c>
-      <c r="F21">
-        <v>30</v>
-      </c>
-      <c r="G21">
-        <v>70</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <v>10</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-      <c r="K21">
         <v>250</v>
       </c>
     </row>
@@ -1098,25 +1101,25 @@
         <v>50000</v>
       </c>
       <c r="C22">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D22">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E22">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F22">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G22">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1133,25 +1136,25 @@
         <v>50000</v>
       </c>
       <c r="C23">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D23">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="E23">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F23">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G23">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -1168,25 +1171,25 @@
         <v>50000</v>
       </c>
       <c r="C24">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D24">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="E24">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F24">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G24">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -1203,25 +1206,25 @@
         <v>50000</v>
       </c>
       <c r="C25">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D25">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="E25">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F25">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G25">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -1238,25 +1241,25 @@
         <v>50000</v>
       </c>
       <c r="C26">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D26">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="E26">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F26">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G26">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -1273,25 +1276,25 @@
         <v>50000</v>
       </c>
       <c r="C27">
+        <v>480</v>
+      </c>
+      <c r="D27">
         <v>180</v>
       </c>
-      <c r="D27">
-        <v>300</v>
-      </c>
       <c r="E27">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F27">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G27">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -1308,25 +1311,25 @@
         <v>50000</v>
       </c>
       <c r="C28">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D28">
-        <v>330</v>
+        <v>210</v>
       </c>
       <c r="E28">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F28">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G28">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -1343,25 +1346,25 @@
         <v>50000</v>
       </c>
       <c r="C29">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D29">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="E29">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F29">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G29">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J29">
         <v>2</v>
@@ -1378,25 +1381,25 @@
         <v>50000</v>
       </c>
       <c r="C30">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D30">
-        <v>390</v>
+        <v>270</v>
       </c>
       <c r="E30">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F30">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G30">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -1413,25 +1416,25 @@
         <v>50000</v>
       </c>
       <c r="C31">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D31">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="E31">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G31">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -1448,25 +1451,25 @@
         <v>50000</v>
       </c>
       <c r="C32">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D32">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="E32">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F32">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G32">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I32">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -1483,25 +1486,25 @@
         <v>50000</v>
       </c>
       <c r="C33">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D33">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="E33">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F33">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G33">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -1510,6 +1513,41 @@
         <v>250</v>
       </c>
     </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>50000</v>
+      </c>
+      <c r="C34">
+        <v>480</v>
+      </c>
+      <c r="D34">
+        <v>390</v>
+      </c>
+      <c r="E34">
+        <v>300</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>250</v>
+      </c>
+    </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
@@ -1518,28 +1556,28 @@
         <v>50000</v>
       </c>
       <c r="C35">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>420</v>
       </c>
       <c r="E35">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F35">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G35">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K35">
         <v>250</v>
@@ -1553,28 +1591,28 @@
         <v>50000</v>
       </c>
       <c r="C36">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D36">
-        <v>60</v>
+        <v>450</v>
       </c>
       <c r="E36">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F36">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G36">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K36">
         <v>250</v>
@@ -1588,28 +1626,28 @@
         <v>50000</v>
       </c>
       <c r="C37">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D37">
-        <v>90</v>
+        <v>480</v>
       </c>
       <c r="E37">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F37">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G37">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H37">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I37">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K37">
         <v>250</v>
@@ -1623,28 +1661,28 @@
         <v>50000</v>
       </c>
       <c r="C38">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D38">
-        <v>120</v>
+        <v>510</v>
       </c>
       <c r="E38">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F38">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G38">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H38">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I38">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K38">
         <v>250</v>
@@ -1658,28 +1696,28 @@
         <v>50000</v>
       </c>
       <c r="C39">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D39">
-        <v>150</v>
+        <v>540</v>
       </c>
       <c r="E39">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F39">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G39">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K39">
         <v>250</v>
@@ -1693,28 +1731,28 @@
         <v>50000</v>
       </c>
       <c r="C40">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D40">
-        <v>180</v>
+        <v>570</v>
       </c>
       <c r="E40">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F40">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G40">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K40">
         <v>250</v>
@@ -1728,65 +1766,30 @@
         <v>50000</v>
       </c>
       <c r="C41">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D41">
-        <v>210</v>
+        <v>600</v>
       </c>
       <c r="E41">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F41">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G41">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K41">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>50000</v>
-      </c>
-      <c r="C42">
-        <v>180</v>
-      </c>
-      <c r="D42">
-        <v>240</v>
-      </c>
-      <c r="E42">
-        <v>120</v>
-      </c>
-      <c r="F42">
-        <v>30</v>
-      </c>
-      <c r="G42">
-        <v>70</v>
-      </c>
-      <c r="H42">
-        <v>10</v>
-      </c>
-      <c r="I42">
-        <v>10</v>
-      </c>
-      <c r="J42">
-        <v>3</v>
-      </c>
-      <c r="K42">
         <v>250</v>
       </c>
     </row>
@@ -1798,25 +1801,25 @@
         <v>50000</v>
       </c>
       <c r="C43">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D43">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="E43">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F43">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G43">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H43">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -1833,25 +1836,25 @@
         <v>50000</v>
       </c>
       <c r="C44">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D44">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E44">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F44">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G44">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H44">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I44">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J44">
         <v>3</v>
@@ -1868,25 +1871,25 @@
         <v>50000</v>
       </c>
       <c r="C45">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D45">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="E45">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F45">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G45">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H45">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I45">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J45">
         <v>3</v>
@@ -1903,25 +1906,25 @@
         <v>50000</v>
       </c>
       <c r="C46">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D46">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="E46">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F46">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G46">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H46">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I46">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -1938,25 +1941,25 @@
         <v>50000</v>
       </c>
       <c r="C47">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D47">
-        <v>390</v>
+        <v>150</v>
       </c>
       <c r="E47">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F47">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G47">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H47">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I47">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -1973,25 +1976,25 @@
         <v>50000</v>
       </c>
       <c r="C48">
+        <v>480</v>
+      </c>
+      <c r="D48">
         <v>180</v>
       </c>
-      <c r="D48">
-        <v>420</v>
-      </c>
       <c r="E48">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F48">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G48">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J48">
         <v>3</v>
@@ -2008,25 +2011,25 @@
         <v>50000</v>
       </c>
       <c r="C49">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D49">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="E49">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F49">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G49">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H49">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I49">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J49">
         <v>3</v>
@@ -2043,25 +2046,25 @@
         <v>50000</v>
       </c>
       <c r="C50">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D50">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="E50">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F50">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G50">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H50">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I50">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J50">
         <v>3</v>
@@ -2070,6 +2073,41 @@
         <v>250</v>
       </c>
     </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>50000</v>
+      </c>
+      <c r="C51">
+        <v>480</v>
+      </c>
+      <c r="D51">
+        <v>270</v>
+      </c>
+      <c r="E51">
+        <v>300</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <v>100</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>250</v>
+      </c>
+    </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
@@ -2078,28 +2116,28 @@
         <v>50000</v>
       </c>
       <c r="C52">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D52">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="E52">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F52">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G52">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K52">
         <v>250</v>
@@ -2113,28 +2151,28 @@
         <v>50000</v>
       </c>
       <c r="C53">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D53">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="E53">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F53">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G53">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H53">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I53">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K53">
         <v>250</v>
@@ -2148,28 +2186,28 @@
         <v>50000</v>
       </c>
       <c r="C54">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D54">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="E54">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F54">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G54">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H54">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I54">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K54">
         <v>250</v>
@@ -2183,28 +2221,28 @@
         <v>50000</v>
       </c>
       <c r="C55">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D55">
-        <v>120</v>
+        <v>390</v>
       </c>
       <c r="E55">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F55">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G55">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H55">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I55">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K55">
         <v>250</v>
@@ -2218,28 +2256,28 @@
         <v>50000</v>
       </c>
       <c r="C56">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D56">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="E56">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F56">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G56">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H56">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I56">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K56">
         <v>250</v>
@@ -2253,28 +2291,28 @@
         <v>50000</v>
       </c>
       <c r="C57">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D57">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="E57">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F57">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G57">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H57">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I57">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K57">
         <v>250</v>
@@ -2288,28 +2326,28 @@
         <v>50000</v>
       </c>
       <c r="C58">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D58">
-        <v>210</v>
+        <v>480</v>
       </c>
       <c r="E58">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F58">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G58">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H58">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K58">
         <v>250</v>
@@ -2323,28 +2361,28 @@
         <v>50000</v>
       </c>
       <c r="C59">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D59">
-        <v>240</v>
+        <v>510</v>
       </c>
       <c r="E59">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F59">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G59">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H59">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I59">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K59">
         <v>250</v>
@@ -2358,28 +2396,28 @@
         <v>50000</v>
       </c>
       <c r="C60">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D60">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="E60">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F60">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G60">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H60">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I60">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K60">
         <v>250</v>
@@ -2393,28 +2431,28 @@
         <v>50000</v>
       </c>
       <c r="C61">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D61">
-        <v>300</v>
+        <v>570</v>
       </c>
       <c r="E61">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F61">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G61">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H61">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I61">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K61">
         <v>250</v>
@@ -2428,65 +2466,30 @@
         <v>50000</v>
       </c>
       <c r="C62">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D62">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="E62">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F62">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G62">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H62">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I62">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K62">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63">
-        <v>50000</v>
-      </c>
-      <c r="C63">
-        <v>180</v>
-      </c>
-      <c r="D63">
-        <v>360</v>
-      </c>
-      <c r="E63">
-        <v>120</v>
-      </c>
-      <c r="F63">
-        <v>30</v>
-      </c>
-      <c r="G63">
-        <v>70</v>
-      </c>
-      <c r="H63">
-        <v>10</v>
-      </c>
-      <c r="I63">
-        <v>10</v>
-      </c>
-      <c r="J63">
-        <v>4</v>
-      </c>
-      <c r="K63">
         <v>250</v>
       </c>
     </row>
@@ -2498,25 +2501,25 @@
         <v>50000</v>
       </c>
       <c r="C64">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D64">
-        <v>390</v>
+        <v>30</v>
       </c>
       <c r="E64">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F64">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G64">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H64">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I64">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J64">
         <v>4</v>
@@ -2533,25 +2536,25 @@
         <v>50000</v>
       </c>
       <c r="C65">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D65">
-        <v>420</v>
+        <v>60</v>
       </c>
       <c r="E65">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F65">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G65">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H65">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I65">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J65">
         <v>4</v>
@@ -2568,25 +2571,25 @@
         <v>50000</v>
       </c>
       <c r="C66">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D66">
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="E66">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F66">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G66">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -2603,30 +2606,590 @@
         <v>50000</v>
       </c>
       <c r="C67">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D67">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="E67">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F67">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G67">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H67">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I67">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J67">
         <v>4</v>
       </c>
       <c r="K67">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>50000</v>
+      </c>
+      <c r="C68">
+        <v>480</v>
+      </c>
+      <c r="D68">
+        <v>150</v>
+      </c>
+      <c r="E68">
+        <v>300</v>
+      </c>
+      <c r="F68">
+        <v>50</v>
+      </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68">
+        <v>4</v>
+      </c>
+      <c r="K68">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>50000</v>
+      </c>
+      <c r="C69">
+        <v>480</v>
+      </c>
+      <c r="D69">
+        <v>180</v>
+      </c>
+      <c r="E69">
+        <v>300</v>
+      </c>
+      <c r="F69">
+        <v>50</v>
+      </c>
+      <c r="G69">
+        <v>100</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+      <c r="J69">
+        <v>4</v>
+      </c>
+      <c r="K69">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>50000</v>
+      </c>
+      <c r="C70">
+        <v>480</v>
+      </c>
+      <c r="D70">
+        <v>210</v>
+      </c>
+      <c r="E70">
+        <v>300</v>
+      </c>
+      <c r="F70">
+        <v>50</v>
+      </c>
+      <c r="G70">
+        <v>100</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+      <c r="J70">
+        <v>4</v>
+      </c>
+      <c r="K70">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>50000</v>
+      </c>
+      <c r="C71">
+        <v>480</v>
+      </c>
+      <c r="D71">
+        <v>240</v>
+      </c>
+      <c r="E71">
+        <v>300</v>
+      </c>
+      <c r="F71">
+        <v>50</v>
+      </c>
+      <c r="G71">
+        <v>100</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+      <c r="J71">
+        <v>4</v>
+      </c>
+      <c r="K71">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>50000</v>
+      </c>
+      <c r="C72">
+        <v>480</v>
+      </c>
+      <c r="D72">
+        <v>270</v>
+      </c>
+      <c r="E72">
+        <v>300</v>
+      </c>
+      <c r="F72">
+        <v>50</v>
+      </c>
+      <c r="G72">
+        <v>100</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+      <c r="K72">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>50000</v>
+      </c>
+      <c r="C73">
+        <v>480</v>
+      </c>
+      <c r="D73">
+        <v>300</v>
+      </c>
+      <c r="E73">
+        <v>300</v>
+      </c>
+      <c r="F73">
+        <v>50</v>
+      </c>
+      <c r="G73">
+        <v>100</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <v>4</v>
+      </c>
+      <c r="K73">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>50000</v>
+      </c>
+      <c r="C74">
+        <v>480</v>
+      </c>
+      <c r="D74">
+        <v>330</v>
+      </c>
+      <c r="E74">
+        <v>300</v>
+      </c>
+      <c r="F74">
+        <v>50</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+      <c r="J74">
+        <v>4</v>
+      </c>
+      <c r="K74">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>50000</v>
+      </c>
+      <c r="C75">
+        <v>480</v>
+      </c>
+      <c r="D75">
+        <v>360</v>
+      </c>
+      <c r="E75">
+        <v>300</v>
+      </c>
+      <c r="F75">
+        <v>50</v>
+      </c>
+      <c r="G75">
+        <v>100</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+      <c r="K75">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>50000</v>
+      </c>
+      <c r="C76">
+        <v>480</v>
+      </c>
+      <c r="D76">
+        <v>390</v>
+      </c>
+      <c r="E76">
+        <v>300</v>
+      </c>
+      <c r="F76">
+        <v>50</v>
+      </c>
+      <c r="G76">
+        <v>100</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+      <c r="J76">
+        <v>4</v>
+      </c>
+      <c r="K76">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>50000</v>
+      </c>
+      <c r="C77">
+        <v>480</v>
+      </c>
+      <c r="D77">
+        <v>420</v>
+      </c>
+      <c r="E77">
+        <v>300</v>
+      </c>
+      <c r="F77">
+        <v>50</v>
+      </c>
+      <c r="G77">
+        <v>100</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+      <c r="K77">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>50000</v>
+      </c>
+      <c r="C78">
+        <v>480</v>
+      </c>
+      <c r="D78">
+        <v>450</v>
+      </c>
+      <c r="E78">
+        <v>300</v>
+      </c>
+      <c r="F78">
+        <v>50</v>
+      </c>
+      <c r="G78">
+        <v>100</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+      <c r="I78">
+        <v>5</v>
+      </c>
+      <c r="J78">
+        <v>4</v>
+      </c>
+      <c r="K78">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>50000</v>
+      </c>
+      <c r="C79">
+        <v>480</v>
+      </c>
+      <c r="D79">
+        <v>480</v>
+      </c>
+      <c r="E79">
+        <v>300</v>
+      </c>
+      <c r="F79">
+        <v>50</v>
+      </c>
+      <c r="G79">
+        <v>100</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+      <c r="I79">
+        <v>5</v>
+      </c>
+      <c r="J79">
+        <v>4</v>
+      </c>
+      <c r="K79">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>50000</v>
+      </c>
+      <c r="C80">
+        <v>480</v>
+      </c>
+      <c r="D80">
+        <v>510</v>
+      </c>
+      <c r="E80">
+        <v>300</v>
+      </c>
+      <c r="F80">
+        <v>50</v>
+      </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80">
+        <v>5</v>
+      </c>
+      <c r="J80">
+        <v>4</v>
+      </c>
+      <c r="K80">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>50000</v>
+      </c>
+      <c r="C81">
+        <v>480</v>
+      </c>
+      <c r="D81">
+        <v>540</v>
+      </c>
+      <c r="E81">
+        <v>300</v>
+      </c>
+      <c r="F81">
+        <v>50</v>
+      </c>
+      <c r="G81">
+        <v>100</v>
+      </c>
+      <c r="H81">
+        <v>5</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
+      </c>
+      <c r="J81">
+        <v>4</v>
+      </c>
+      <c r="K81">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>50000</v>
+      </c>
+      <c r="C82">
+        <v>480</v>
+      </c>
+      <c r="D82">
+        <v>570</v>
+      </c>
+      <c r="E82">
+        <v>300</v>
+      </c>
+      <c r="F82">
+        <v>50</v>
+      </c>
+      <c r="G82">
+        <v>100</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
+      </c>
+      <c r="K82">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>50000</v>
+      </c>
+      <c r="C83">
+        <v>480</v>
+      </c>
+      <c r="D83">
+        <v>600</v>
+      </c>
+      <c r="E83">
+        <v>300</v>
+      </c>
+      <c r="F83">
+        <v>50</v>
+      </c>
+      <c r="G83">
+        <v>100</v>
+      </c>
+      <c r="H83">
+        <v>5</v>
+      </c>
+      <c r="I83">
+        <v>5</v>
+      </c>
+      <c r="J83">
+        <v>4</v>
+      </c>
+      <c r="K83">
         <v>250</v>
       </c>
     </row>
@@ -2636,4 +3199,4949 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683FE496-2472-4D5D-BD1A-F7421C9B8A3B}">
+  <dimension ref="A1:K83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="A1:K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>50000</v>
+      </c>
+      <c r="C1">
+        <v>480</v>
+      </c>
+      <c r="D1">
+        <v>150</v>
+      </c>
+      <c r="E1">
+        <v>30</v>
+      </c>
+      <c r="F1">
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <v>100</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>50000</v>
+      </c>
+      <c r="C2">
+        <v>480</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>50000</v>
+      </c>
+      <c r="C3">
+        <v>480</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>50000</v>
+      </c>
+      <c r="C4">
+        <v>480</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>50000</v>
+      </c>
+      <c r="C5">
+        <v>480</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>150</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>50000</v>
+      </c>
+      <c r="C6">
+        <v>480</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <v>180</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>50000</v>
+      </c>
+      <c r="C7">
+        <v>480</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7">
+        <v>210</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>50000</v>
+      </c>
+      <c r="C8">
+        <v>480</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8">
+        <v>240</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>50000</v>
+      </c>
+      <c r="C9">
+        <v>480</v>
+      </c>
+      <c r="D9">
+        <v>150</v>
+      </c>
+      <c r="E9">
+        <v>270</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>50000</v>
+      </c>
+      <c r="C10">
+        <v>480</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>50000</v>
+      </c>
+      <c r="C11">
+        <v>480</v>
+      </c>
+      <c r="D11">
+        <v>150</v>
+      </c>
+      <c r="E11">
+        <v>330</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>50000</v>
+      </c>
+      <c r="C12">
+        <v>480</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12">
+        <v>360</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>50000</v>
+      </c>
+      <c r="C13">
+        <v>480</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+      <c r="E13">
+        <v>390</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>50000</v>
+      </c>
+      <c r="C14">
+        <v>480</v>
+      </c>
+      <c r="D14">
+        <v>150</v>
+      </c>
+      <c r="E14">
+        <v>420</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>50000</v>
+      </c>
+      <c r="C15">
+        <v>480</v>
+      </c>
+      <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="E15">
+        <v>450</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>50000</v>
+      </c>
+      <c r="C16">
+        <v>480</v>
+      </c>
+      <c r="D16">
+        <v>150</v>
+      </c>
+      <c r="E16">
+        <v>480</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>50000</v>
+      </c>
+      <c r="C17">
+        <v>480</v>
+      </c>
+      <c r="D17">
+        <v>150</v>
+      </c>
+      <c r="E17">
+        <v>510</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>50000</v>
+      </c>
+      <c r="C18">
+        <v>480</v>
+      </c>
+      <c r="D18">
+        <v>150</v>
+      </c>
+      <c r="E18">
+        <v>540</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>50000</v>
+      </c>
+      <c r="C19">
+        <v>480</v>
+      </c>
+      <c r="D19">
+        <v>150</v>
+      </c>
+      <c r="E19">
+        <v>570</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>50000</v>
+      </c>
+      <c r="C20">
+        <v>480</v>
+      </c>
+      <c r="D20">
+        <v>150</v>
+      </c>
+      <c r="E20">
+        <v>600</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>50000</v>
+      </c>
+      <c r="C22">
+        <v>480</v>
+      </c>
+      <c r="D22">
+        <v>150</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>50000</v>
+      </c>
+      <c r="C23">
+        <v>480</v>
+      </c>
+      <c r="D23">
+        <v>150</v>
+      </c>
+      <c r="E23">
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>50000</v>
+      </c>
+      <c r="C24">
+        <v>480</v>
+      </c>
+      <c r="D24">
+        <v>150</v>
+      </c>
+      <c r="E24">
+        <v>90</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>50000</v>
+      </c>
+      <c r="C25">
+        <v>480</v>
+      </c>
+      <c r="D25">
+        <v>150</v>
+      </c>
+      <c r="E25">
+        <v>120</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>50000</v>
+      </c>
+      <c r="C26">
+        <v>480</v>
+      </c>
+      <c r="D26">
+        <v>150</v>
+      </c>
+      <c r="E26">
+        <v>150</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>50000</v>
+      </c>
+      <c r="C27">
+        <v>480</v>
+      </c>
+      <c r="D27">
+        <v>150</v>
+      </c>
+      <c r="E27">
+        <v>180</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>50000</v>
+      </c>
+      <c r="C28">
+        <v>480</v>
+      </c>
+      <c r="D28">
+        <v>150</v>
+      </c>
+      <c r="E28">
+        <v>210</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>50000</v>
+      </c>
+      <c r="C29">
+        <v>480</v>
+      </c>
+      <c r="D29">
+        <v>150</v>
+      </c>
+      <c r="E29">
+        <v>240</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>50000</v>
+      </c>
+      <c r="C30">
+        <v>480</v>
+      </c>
+      <c r="D30">
+        <v>150</v>
+      </c>
+      <c r="E30">
+        <v>270</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>50000</v>
+      </c>
+      <c r="C31">
+        <v>480</v>
+      </c>
+      <c r="D31">
+        <v>150</v>
+      </c>
+      <c r="E31">
+        <v>300</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>50000</v>
+      </c>
+      <c r="C32">
+        <v>480</v>
+      </c>
+      <c r="D32">
+        <v>150</v>
+      </c>
+      <c r="E32">
+        <v>330</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>50000</v>
+      </c>
+      <c r="C33">
+        <v>480</v>
+      </c>
+      <c r="D33">
+        <v>150</v>
+      </c>
+      <c r="E33">
+        <v>360</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>50000</v>
+      </c>
+      <c r="C34">
+        <v>480</v>
+      </c>
+      <c r="D34">
+        <v>150</v>
+      </c>
+      <c r="E34">
+        <v>390</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>50000</v>
+      </c>
+      <c r="C35">
+        <v>480</v>
+      </c>
+      <c r="D35">
+        <v>150</v>
+      </c>
+      <c r="E35">
+        <v>420</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>50000</v>
+      </c>
+      <c r="C36">
+        <v>480</v>
+      </c>
+      <c r="D36">
+        <v>150</v>
+      </c>
+      <c r="E36">
+        <v>450</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>50000</v>
+      </c>
+      <c r="C37">
+        <v>480</v>
+      </c>
+      <c r="D37">
+        <v>150</v>
+      </c>
+      <c r="E37">
+        <v>480</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>50000</v>
+      </c>
+      <c r="C38">
+        <v>480</v>
+      </c>
+      <c r="D38">
+        <v>150</v>
+      </c>
+      <c r="E38">
+        <v>510</v>
+      </c>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>50000</v>
+      </c>
+      <c r="C39">
+        <v>480</v>
+      </c>
+      <c r="D39">
+        <v>150</v>
+      </c>
+      <c r="E39">
+        <v>540</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>50000</v>
+      </c>
+      <c r="C40">
+        <v>480</v>
+      </c>
+      <c r="D40">
+        <v>150</v>
+      </c>
+      <c r="E40">
+        <v>570</v>
+      </c>
+      <c r="F40">
+        <v>50</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>50000</v>
+      </c>
+      <c r="C41">
+        <v>480</v>
+      </c>
+      <c r="D41">
+        <v>150</v>
+      </c>
+      <c r="E41">
+        <v>600</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>50000</v>
+      </c>
+      <c r="C43">
+        <v>480</v>
+      </c>
+      <c r="D43">
+        <v>150</v>
+      </c>
+      <c r="E43">
+        <v>30</v>
+      </c>
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>50000</v>
+      </c>
+      <c r="C44">
+        <v>480</v>
+      </c>
+      <c r="D44">
+        <v>150</v>
+      </c>
+      <c r="E44">
+        <v>60</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>50000</v>
+      </c>
+      <c r="C45">
+        <v>480</v>
+      </c>
+      <c r="D45">
+        <v>150</v>
+      </c>
+      <c r="E45">
+        <v>90</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>50000</v>
+      </c>
+      <c r="C46">
+        <v>480</v>
+      </c>
+      <c r="D46">
+        <v>150</v>
+      </c>
+      <c r="E46">
+        <v>120</v>
+      </c>
+      <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>50000</v>
+      </c>
+      <c r="C47">
+        <v>480</v>
+      </c>
+      <c r="D47">
+        <v>150</v>
+      </c>
+      <c r="E47">
+        <v>150</v>
+      </c>
+      <c r="F47">
+        <v>50</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="K47">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>50000</v>
+      </c>
+      <c r="C48">
+        <v>480</v>
+      </c>
+      <c r="D48">
+        <v>150</v>
+      </c>
+      <c r="E48">
+        <v>180</v>
+      </c>
+      <c r="F48">
+        <v>50</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>50000</v>
+      </c>
+      <c r="C49">
+        <v>480</v>
+      </c>
+      <c r="D49">
+        <v>150</v>
+      </c>
+      <c r="E49">
+        <v>210</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>50000</v>
+      </c>
+      <c r="C50">
+        <v>480</v>
+      </c>
+      <c r="D50">
+        <v>150</v>
+      </c>
+      <c r="E50">
+        <v>240</v>
+      </c>
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>50000</v>
+      </c>
+      <c r="C51">
+        <v>480</v>
+      </c>
+      <c r="D51">
+        <v>150</v>
+      </c>
+      <c r="E51">
+        <v>270</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <v>100</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>50000</v>
+      </c>
+      <c r="C52">
+        <v>480</v>
+      </c>
+      <c r="D52">
+        <v>150</v>
+      </c>
+      <c r="E52">
+        <v>300</v>
+      </c>
+      <c r="F52">
+        <v>50</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>50000</v>
+      </c>
+      <c r="C53">
+        <v>480</v>
+      </c>
+      <c r="D53">
+        <v>150</v>
+      </c>
+      <c r="E53">
+        <v>330</v>
+      </c>
+      <c r="F53">
+        <v>50</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>50000</v>
+      </c>
+      <c r="C54">
+        <v>480</v>
+      </c>
+      <c r="D54">
+        <v>150</v>
+      </c>
+      <c r="E54">
+        <v>360</v>
+      </c>
+      <c r="F54">
+        <v>50</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>50000</v>
+      </c>
+      <c r="C55">
+        <v>480</v>
+      </c>
+      <c r="D55">
+        <v>150</v>
+      </c>
+      <c r="E55">
+        <v>390</v>
+      </c>
+      <c r="F55">
+        <v>50</v>
+      </c>
+      <c r="G55">
+        <v>100</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>50000</v>
+      </c>
+      <c r="C56">
+        <v>480</v>
+      </c>
+      <c r="D56">
+        <v>150</v>
+      </c>
+      <c r="E56">
+        <v>420</v>
+      </c>
+      <c r="F56">
+        <v>50</v>
+      </c>
+      <c r="G56">
+        <v>100</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+      <c r="K56">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>50000</v>
+      </c>
+      <c r="C57">
+        <v>480</v>
+      </c>
+      <c r="D57">
+        <v>150</v>
+      </c>
+      <c r="E57">
+        <v>450</v>
+      </c>
+      <c r="F57">
+        <v>50</v>
+      </c>
+      <c r="G57">
+        <v>100</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+      <c r="K57">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>50000</v>
+      </c>
+      <c r="C58">
+        <v>480</v>
+      </c>
+      <c r="D58">
+        <v>150</v>
+      </c>
+      <c r="E58">
+        <v>480</v>
+      </c>
+      <c r="F58">
+        <v>50</v>
+      </c>
+      <c r="G58">
+        <v>100</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+      <c r="K58">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>50000</v>
+      </c>
+      <c r="C59">
+        <v>480</v>
+      </c>
+      <c r="D59">
+        <v>150</v>
+      </c>
+      <c r="E59">
+        <v>510</v>
+      </c>
+      <c r="F59">
+        <v>50</v>
+      </c>
+      <c r="G59">
+        <v>100</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>3</v>
+      </c>
+      <c r="K59">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>50000</v>
+      </c>
+      <c r="C60">
+        <v>480</v>
+      </c>
+      <c r="D60">
+        <v>150</v>
+      </c>
+      <c r="E60">
+        <v>540</v>
+      </c>
+      <c r="F60">
+        <v>50</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>3</v>
+      </c>
+      <c r="K60">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>50000</v>
+      </c>
+      <c r="C61">
+        <v>480</v>
+      </c>
+      <c r="D61">
+        <v>150</v>
+      </c>
+      <c r="E61">
+        <v>570</v>
+      </c>
+      <c r="F61">
+        <v>50</v>
+      </c>
+      <c r="G61">
+        <v>100</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>50000</v>
+      </c>
+      <c r="C62">
+        <v>480</v>
+      </c>
+      <c r="D62">
+        <v>150</v>
+      </c>
+      <c r="E62">
+        <v>600</v>
+      </c>
+      <c r="F62">
+        <v>50</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>3</v>
+      </c>
+      <c r="K62">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>50000</v>
+      </c>
+      <c r="C64">
+        <v>480</v>
+      </c>
+      <c r="D64">
+        <v>150</v>
+      </c>
+      <c r="E64">
+        <v>30</v>
+      </c>
+      <c r="F64">
+        <v>50</v>
+      </c>
+      <c r="G64">
+        <v>100</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>4</v>
+      </c>
+      <c r="K64">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>50000</v>
+      </c>
+      <c r="C65">
+        <v>480</v>
+      </c>
+      <c r="D65">
+        <v>150</v>
+      </c>
+      <c r="E65">
+        <v>60</v>
+      </c>
+      <c r="F65">
+        <v>50</v>
+      </c>
+      <c r="G65">
+        <v>100</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+      <c r="J65">
+        <v>4</v>
+      </c>
+      <c r="K65">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>50000</v>
+      </c>
+      <c r="C66">
+        <v>480</v>
+      </c>
+      <c r="D66">
+        <v>150</v>
+      </c>
+      <c r="E66">
+        <v>90</v>
+      </c>
+      <c r="F66">
+        <v>50</v>
+      </c>
+      <c r="G66">
+        <v>100</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+      <c r="J66">
+        <v>4</v>
+      </c>
+      <c r="K66">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>50000</v>
+      </c>
+      <c r="C67">
+        <v>480</v>
+      </c>
+      <c r="D67">
+        <v>150</v>
+      </c>
+      <c r="E67">
+        <v>120</v>
+      </c>
+      <c r="F67">
+        <v>50</v>
+      </c>
+      <c r="G67">
+        <v>100</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67">
+        <v>4</v>
+      </c>
+      <c r="K67">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>50000</v>
+      </c>
+      <c r="C68">
+        <v>480</v>
+      </c>
+      <c r="D68">
+        <v>150</v>
+      </c>
+      <c r="E68">
+        <v>150</v>
+      </c>
+      <c r="F68">
+        <v>50</v>
+      </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68">
+        <v>4</v>
+      </c>
+      <c r="K68">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>50000</v>
+      </c>
+      <c r="C69">
+        <v>480</v>
+      </c>
+      <c r="D69">
+        <v>150</v>
+      </c>
+      <c r="E69">
+        <v>180</v>
+      </c>
+      <c r="F69">
+        <v>50</v>
+      </c>
+      <c r="G69">
+        <v>100</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+      <c r="J69">
+        <v>4</v>
+      </c>
+      <c r="K69">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>50000</v>
+      </c>
+      <c r="C70">
+        <v>480</v>
+      </c>
+      <c r="D70">
+        <v>150</v>
+      </c>
+      <c r="E70">
+        <v>210</v>
+      </c>
+      <c r="F70">
+        <v>50</v>
+      </c>
+      <c r="G70">
+        <v>100</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+      <c r="J70">
+        <v>4</v>
+      </c>
+      <c r="K70">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>50000</v>
+      </c>
+      <c r="C71">
+        <v>480</v>
+      </c>
+      <c r="D71">
+        <v>150</v>
+      </c>
+      <c r="E71">
+        <v>240</v>
+      </c>
+      <c r="F71">
+        <v>50</v>
+      </c>
+      <c r="G71">
+        <v>100</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+      <c r="J71">
+        <v>4</v>
+      </c>
+      <c r="K71">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>50000</v>
+      </c>
+      <c r="C72">
+        <v>480</v>
+      </c>
+      <c r="D72">
+        <v>150</v>
+      </c>
+      <c r="E72">
+        <v>270</v>
+      </c>
+      <c r="F72">
+        <v>50</v>
+      </c>
+      <c r="G72">
+        <v>100</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+      <c r="K72">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>50000</v>
+      </c>
+      <c r="C73">
+        <v>480</v>
+      </c>
+      <c r="D73">
+        <v>150</v>
+      </c>
+      <c r="E73">
+        <v>300</v>
+      </c>
+      <c r="F73">
+        <v>50</v>
+      </c>
+      <c r="G73">
+        <v>100</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <v>4</v>
+      </c>
+      <c r="K73">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>50000</v>
+      </c>
+      <c r="C74">
+        <v>480</v>
+      </c>
+      <c r="D74">
+        <v>150</v>
+      </c>
+      <c r="E74">
+        <v>330</v>
+      </c>
+      <c r="F74">
+        <v>50</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+      <c r="J74">
+        <v>4</v>
+      </c>
+      <c r="K74">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>50000</v>
+      </c>
+      <c r="C75">
+        <v>480</v>
+      </c>
+      <c r="D75">
+        <v>150</v>
+      </c>
+      <c r="E75">
+        <v>360</v>
+      </c>
+      <c r="F75">
+        <v>50</v>
+      </c>
+      <c r="G75">
+        <v>100</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+      <c r="K75">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>50000</v>
+      </c>
+      <c r="C76">
+        <v>480</v>
+      </c>
+      <c r="D76">
+        <v>150</v>
+      </c>
+      <c r="E76">
+        <v>390</v>
+      </c>
+      <c r="F76">
+        <v>50</v>
+      </c>
+      <c r="G76">
+        <v>100</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+      <c r="J76">
+        <v>4</v>
+      </c>
+      <c r="K76">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>50000</v>
+      </c>
+      <c r="C77">
+        <v>480</v>
+      </c>
+      <c r="D77">
+        <v>150</v>
+      </c>
+      <c r="E77">
+        <v>420</v>
+      </c>
+      <c r="F77">
+        <v>50</v>
+      </c>
+      <c r="G77">
+        <v>100</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+      <c r="K77">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>50000</v>
+      </c>
+      <c r="C78">
+        <v>480</v>
+      </c>
+      <c r="D78">
+        <v>150</v>
+      </c>
+      <c r="E78">
+        <v>450</v>
+      </c>
+      <c r="F78">
+        <v>50</v>
+      </c>
+      <c r="G78">
+        <v>100</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+      <c r="I78">
+        <v>5</v>
+      </c>
+      <c r="J78">
+        <v>4</v>
+      </c>
+      <c r="K78">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>50000</v>
+      </c>
+      <c r="C79">
+        <v>480</v>
+      </c>
+      <c r="D79">
+        <v>150</v>
+      </c>
+      <c r="E79">
+        <v>480</v>
+      </c>
+      <c r="F79">
+        <v>50</v>
+      </c>
+      <c r="G79">
+        <v>100</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+      <c r="I79">
+        <v>5</v>
+      </c>
+      <c r="J79">
+        <v>4</v>
+      </c>
+      <c r="K79">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>50000</v>
+      </c>
+      <c r="C80">
+        <v>480</v>
+      </c>
+      <c r="D80">
+        <v>150</v>
+      </c>
+      <c r="E80">
+        <v>510</v>
+      </c>
+      <c r="F80">
+        <v>50</v>
+      </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80">
+        <v>5</v>
+      </c>
+      <c r="J80">
+        <v>4</v>
+      </c>
+      <c r="K80">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>50000</v>
+      </c>
+      <c r="C81">
+        <v>480</v>
+      </c>
+      <c r="D81">
+        <v>150</v>
+      </c>
+      <c r="E81">
+        <v>540</v>
+      </c>
+      <c r="F81">
+        <v>50</v>
+      </c>
+      <c r="G81">
+        <v>100</v>
+      </c>
+      <c r="H81">
+        <v>5</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
+      </c>
+      <c r="J81">
+        <v>4</v>
+      </c>
+      <c r="K81">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>50000</v>
+      </c>
+      <c r="C82">
+        <v>480</v>
+      </c>
+      <c r="D82">
+        <v>150</v>
+      </c>
+      <c r="E82">
+        <v>570</v>
+      </c>
+      <c r="F82">
+        <v>50</v>
+      </c>
+      <c r="G82">
+        <v>100</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
+      </c>
+      <c r="K82">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>50000</v>
+      </c>
+      <c r="C83">
+        <v>480</v>
+      </c>
+      <c r="D83">
+        <v>150</v>
+      </c>
+      <c r="E83">
+        <v>600</v>
+      </c>
+      <c r="F83">
+        <v>50</v>
+      </c>
+      <c r="G83">
+        <v>100</v>
+      </c>
+      <c r="H83">
+        <v>5</v>
+      </c>
+      <c r="I83">
+        <v>5</v>
+      </c>
+      <c r="J83">
+        <v>4</v>
+      </c>
+      <c r="K83">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE55BE6-D978-4642-B060-3921FBB83C8B}">
+  <dimension ref="A1:K43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="A1:K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>50000</v>
+      </c>
+      <c r="C1">
+        <v>480</v>
+      </c>
+      <c r="D1">
+        <v>150</v>
+      </c>
+      <c r="E1">
+        <v>300</v>
+      </c>
+      <c r="F1">
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <v>100</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>0.25</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>50000</v>
+      </c>
+      <c r="C2">
+        <v>480</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>50000</v>
+      </c>
+      <c r="C3">
+        <v>480</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>50000</v>
+      </c>
+      <c r="C4">
+        <v>480</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>50000</v>
+      </c>
+      <c r="C5">
+        <v>480</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>50000</v>
+      </c>
+      <c r="C6">
+        <v>480</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>50000</v>
+      </c>
+      <c r="C7">
+        <v>480</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>50000</v>
+      </c>
+      <c r="C8">
+        <v>480</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>32</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>50000</v>
+      </c>
+      <c r="C9">
+        <v>480</v>
+      </c>
+      <c r="D9">
+        <v>150</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>64</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>50000</v>
+      </c>
+      <c r="C10">
+        <v>480</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>128</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>50000</v>
+      </c>
+      <c r="C12">
+        <v>480</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>0.25</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>50000</v>
+      </c>
+      <c r="C13">
+        <v>480</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>50000</v>
+      </c>
+      <c r="C14">
+        <v>480</v>
+      </c>
+      <c r="D14">
+        <v>150</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>50000</v>
+      </c>
+      <c r="C15">
+        <v>480</v>
+      </c>
+      <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>50000</v>
+      </c>
+      <c r="C16">
+        <v>480</v>
+      </c>
+      <c r="D16">
+        <v>150</v>
+      </c>
+      <c r="E16">
+        <v>300</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>50000</v>
+      </c>
+      <c r="C17">
+        <v>480</v>
+      </c>
+      <c r="D17">
+        <v>150</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>50000</v>
+      </c>
+      <c r="C18">
+        <v>480</v>
+      </c>
+      <c r="D18">
+        <v>150</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>50000</v>
+      </c>
+      <c r="C19">
+        <v>480</v>
+      </c>
+      <c r="D19">
+        <v>150</v>
+      </c>
+      <c r="E19">
+        <v>300</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>32</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>50000</v>
+      </c>
+      <c r="C20">
+        <v>480</v>
+      </c>
+      <c r="D20">
+        <v>150</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>64</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>50000</v>
+      </c>
+      <c r="C21">
+        <v>480</v>
+      </c>
+      <c r="D21">
+        <v>150</v>
+      </c>
+      <c r="E21">
+        <v>300</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>128</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>50000</v>
+      </c>
+      <c r="C23">
+        <v>480</v>
+      </c>
+      <c r="D23">
+        <v>150</v>
+      </c>
+      <c r="E23">
+        <v>300</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>0.25</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>50000</v>
+      </c>
+      <c r="C24">
+        <v>480</v>
+      </c>
+      <c r="D24">
+        <v>150</v>
+      </c>
+      <c r="E24">
+        <v>300</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>0.5</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>50000</v>
+      </c>
+      <c r="C25">
+        <v>480</v>
+      </c>
+      <c r="D25">
+        <v>150</v>
+      </c>
+      <c r="E25">
+        <v>300</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>50000</v>
+      </c>
+      <c r="C26">
+        <v>480</v>
+      </c>
+      <c r="D26">
+        <v>150</v>
+      </c>
+      <c r="E26">
+        <v>300</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>50000</v>
+      </c>
+      <c r="C27">
+        <v>480</v>
+      </c>
+      <c r="D27">
+        <v>150</v>
+      </c>
+      <c r="E27">
+        <v>300</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>50000</v>
+      </c>
+      <c r="C28">
+        <v>480</v>
+      </c>
+      <c r="D28">
+        <v>150</v>
+      </c>
+      <c r="E28">
+        <v>300</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>50000</v>
+      </c>
+      <c r="C29">
+        <v>480</v>
+      </c>
+      <c r="D29">
+        <v>150</v>
+      </c>
+      <c r="E29">
+        <v>300</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>16</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>50000</v>
+      </c>
+      <c r="C30">
+        <v>480</v>
+      </c>
+      <c r="D30">
+        <v>150</v>
+      </c>
+      <c r="E30">
+        <v>300</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>32</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>50000</v>
+      </c>
+      <c r="C31">
+        <v>480</v>
+      </c>
+      <c r="D31">
+        <v>150</v>
+      </c>
+      <c r="E31">
+        <v>300</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>64</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>50000</v>
+      </c>
+      <c r="C32">
+        <v>480</v>
+      </c>
+      <c r="D32">
+        <v>150</v>
+      </c>
+      <c r="E32">
+        <v>300</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>128</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>50000</v>
+      </c>
+      <c r="C34">
+        <v>480</v>
+      </c>
+      <c r="D34">
+        <v>150</v>
+      </c>
+      <c r="E34">
+        <v>300</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>0.25</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>50000</v>
+      </c>
+      <c r="C35">
+        <v>480</v>
+      </c>
+      <c r="D35">
+        <v>150</v>
+      </c>
+      <c r="E35">
+        <v>300</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>0.5</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>50000</v>
+      </c>
+      <c r="C36">
+        <v>480</v>
+      </c>
+      <c r="D36">
+        <v>150</v>
+      </c>
+      <c r="E36">
+        <v>300</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>50000</v>
+      </c>
+      <c r="C37">
+        <v>480</v>
+      </c>
+      <c r="D37">
+        <v>150</v>
+      </c>
+      <c r="E37">
+        <v>300</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>50000</v>
+      </c>
+      <c r="C38">
+        <v>480</v>
+      </c>
+      <c r="D38">
+        <v>150</v>
+      </c>
+      <c r="E38">
+        <v>300</v>
+      </c>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>50000</v>
+      </c>
+      <c r="C39">
+        <v>480</v>
+      </c>
+      <c r="D39">
+        <v>150</v>
+      </c>
+      <c r="E39">
+        <v>300</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>8</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>50000</v>
+      </c>
+      <c r="C40">
+        <v>480</v>
+      </c>
+      <c r="D40">
+        <v>150</v>
+      </c>
+      <c r="E40">
+        <v>300</v>
+      </c>
+      <c r="F40">
+        <v>50</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>16</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>50000</v>
+      </c>
+      <c r="C41">
+        <v>480</v>
+      </c>
+      <c r="D41">
+        <v>150</v>
+      </c>
+      <c r="E41">
+        <v>300</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>32</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>50000</v>
+      </c>
+      <c r="C42">
+        <v>480</v>
+      </c>
+      <c r="D42">
+        <v>150</v>
+      </c>
+      <c r="E42">
+        <v>300</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>64</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>50000</v>
+      </c>
+      <c r="C43">
+        <v>480</v>
+      </c>
+      <c r="D43">
+        <v>150</v>
+      </c>
+      <c r="E43">
+        <v>300</v>
+      </c>
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>128</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63591A70-7D12-407F-B009-D3C34039C173}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="A1:K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>50000</v>
+      </c>
+      <c r="C1">
+        <v>480</v>
+      </c>
+      <c r="D1">
+        <v>150</v>
+      </c>
+      <c r="E1">
+        <v>300</v>
+      </c>
+      <c r="F1">
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <v>25</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>50000</v>
+      </c>
+      <c r="C2">
+        <v>480</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>50000</v>
+      </c>
+      <c r="C3">
+        <v>480</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>50000</v>
+      </c>
+      <c r="C4">
+        <v>480</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>50000</v>
+      </c>
+      <c r="C5">
+        <v>480</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>400</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>50000</v>
+      </c>
+      <c r="C7">
+        <v>480</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>50000</v>
+      </c>
+      <c r="C8">
+        <v>480</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>50000</v>
+      </c>
+      <c r="C9">
+        <v>480</v>
+      </c>
+      <c r="D9">
+        <v>150</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>50000</v>
+      </c>
+      <c r="C10">
+        <v>480</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>50000</v>
+      </c>
+      <c r="C11">
+        <v>480</v>
+      </c>
+      <c r="D11">
+        <v>150</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>400</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>50000</v>
+      </c>
+      <c r="C13">
+        <v>480</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>50000</v>
+      </c>
+      <c r="C14">
+        <v>480</v>
+      </c>
+      <c r="D14">
+        <v>150</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>50000</v>
+      </c>
+      <c r="C15">
+        <v>480</v>
+      </c>
+      <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>50000</v>
+      </c>
+      <c r="C16">
+        <v>480</v>
+      </c>
+      <c r="D16">
+        <v>150</v>
+      </c>
+      <c r="E16">
+        <v>300</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>200</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>50000</v>
+      </c>
+      <c r="C17">
+        <v>480</v>
+      </c>
+      <c r="D17">
+        <v>150</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>400</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>50000</v>
+      </c>
+      <c r="C19">
+        <v>480</v>
+      </c>
+      <c r="D19">
+        <v>150</v>
+      </c>
+      <c r="E19">
+        <v>300</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>50000</v>
+      </c>
+      <c r="C20">
+        <v>480</v>
+      </c>
+      <c r="D20">
+        <v>150</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>50000</v>
+      </c>
+      <c r="C21">
+        <v>480</v>
+      </c>
+      <c r="D21">
+        <v>150</v>
+      </c>
+      <c r="E21">
+        <v>300</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>50000</v>
+      </c>
+      <c r="C22">
+        <v>480</v>
+      </c>
+      <c r="D22">
+        <v>150</v>
+      </c>
+      <c r="E22">
+        <v>300</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>200</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>50000</v>
+      </c>
+      <c r="C23">
+        <v>480</v>
+      </c>
+      <c r="D23">
+        <v>150</v>
+      </c>
+      <c r="E23">
+        <v>300</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>400</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/script/mOffload.xlsx
+++ b/script/mOffload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\BandwidthUNcertinity\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23F362A-E714-438D-B2B4-82A9F50AD6C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98991CA-968E-43F5-AE64-D4631A97E819}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{60046224-DB48-4D55-9DB3-CD82E3B77A28}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="tC" sheetId="4" r:id="rId2"/>
     <sheet name="b2" sheetId="5" r:id="rId3"/>
     <sheet name="t1" sheetId="6" r:id="rId4"/>
+    <sheet name="tct0" sheetId="7" r:id="rId5"/>
+    <sheet name="var_ts" sheetId="8" r:id="rId6"/>
+    <sheet name="vae_TC" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="1">
   <si>
     <t>./mOffloading</t>
   </si>
@@ -3206,7 +3209,7 @@
   <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="A1:K20"/>
+      <selection activeCell="K1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6021,7 +6024,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="A1:K10"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7436,7 +7439,725 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="A1:K23"/>
+      <selection activeCell="C19" sqref="C19:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>50000</v>
+      </c>
+      <c r="C1">
+        <v>120</v>
+      </c>
+      <c r="D1">
+        <v>150</v>
+      </c>
+      <c r="E1">
+        <v>300</v>
+      </c>
+      <c r="F1">
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <v>25</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>50000</v>
+      </c>
+      <c r="C2">
+        <v>120</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>50000</v>
+      </c>
+      <c r="C3">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>50000</v>
+      </c>
+      <c r="C4">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>50000</v>
+      </c>
+      <c r="C5">
+        <v>120</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>400</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>50000</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>2.5</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>50000</v>
+      </c>
+      <c r="C8">
+        <v>120</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>2.5</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>50000</v>
+      </c>
+      <c r="C9">
+        <v>120</v>
+      </c>
+      <c r="D9">
+        <v>150</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>2.5</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>50000</v>
+      </c>
+      <c r="C10">
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>2.5</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>50000</v>
+      </c>
+      <c r="C11">
+        <v>120</v>
+      </c>
+      <c r="D11">
+        <v>150</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>400</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>2.5</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>50000</v>
+      </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>50000</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>150</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>50000</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>50000</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+      <c r="D16">
+        <v>150</v>
+      </c>
+      <c r="E16">
+        <v>300</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>200</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>50000</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17">
+        <v>150</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>400</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>50000</v>
+      </c>
+      <c r="C19">
+        <v>120</v>
+      </c>
+      <c r="D19">
+        <v>150</v>
+      </c>
+      <c r="E19">
+        <v>300</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>50000</v>
+      </c>
+      <c r="C20">
+        <v>120</v>
+      </c>
+      <c r="D20">
+        <v>150</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>50000</v>
+      </c>
+      <c r="C21">
+        <v>120</v>
+      </c>
+      <c r="D21">
+        <v>150</v>
+      </c>
+      <c r="E21">
+        <v>300</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>50000</v>
+      </c>
+      <c r="C22">
+        <v>120</v>
+      </c>
+      <c r="D22">
+        <v>150</v>
+      </c>
+      <c r="E22">
+        <v>300</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>200</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>50000</v>
+      </c>
+      <c r="C23">
+        <v>120</v>
+      </c>
+      <c r="D23">
+        <v>150</v>
+      </c>
+      <c r="E23">
+        <v>300</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>400</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2479240F-BF2D-436B-8558-F2AB6BC11421}">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="A1:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7449,19 +8170,19 @@
         <v>50000</v>
       </c>
       <c r="C1">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D1">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E1">
-        <v>300</v>
+        <v>12.5</v>
       </c>
       <c r="F1">
         <v>50</v>
       </c>
       <c r="G1">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H1">
         <v>5</v>
@@ -7473,7 +8194,7 @@
         <v>1</v>
       </c>
       <c r="K1">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7484,19 +8205,19 @@
         <v>50000</v>
       </c>
       <c r="C2">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D2">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>50</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -7508,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7519,13 +8240,13 @@
         <v>50000</v>
       </c>
       <c r="C3">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D3">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -7543,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7554,19 +8275,19 @@
         <v>50000</v>
       </c>
       <c r="C4">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>50</v>
       </c>
       <c r="G4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -7578,7 +8299,7 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -7589,19 +8310,19 @@
         <v>50000</v>
       </c>
       <c r="C5">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E5">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F5">
         <v>50</v>
       </c>
       <c r="G5">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -7613,7 +8334,901 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>250</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>50000</v>
+      </c>
+      <c r="C6">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>400</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>50000</v>
+      </c>
+      <c r="C8">
+        <v>120</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>12.5</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>50000</v>
+      </c>
+      <c r="C9">
+        <v>120</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>50000</v>
+      </c>
+      <c r="C10">
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>50000</v>
+      </c>
+      <c r="C11">
+        <v>120</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>50000</v>
+      </c>
+      <c r="C12">
+        <v>120</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>50000</v>
+      </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>400</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>50000</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>12.5</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>50000</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>50000</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>50000</v>
+      </c>
+      <c r="C18">
+        <v>120</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>50000</v>
+      </c>
+      <c r="C19">
+        <v>120</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>200</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>50000</v>
+      </c>
+      <c r="C20">
+        <v>120</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>400</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>50000</v>
+      </c>
+      <c r="C22">
+        <v>120</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>12.5</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>50000</v>
+      </c>
+      <c r="C23">
+        <v>120</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>50000</v>
+      </c>
+      <c r="C24">
+        <v>120</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>50000</v>
+      </c>
+      <c r="C25">
+        <v>120</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>50000</v>
+      </c>
+      <c r="C26">
+        <v>120</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>200</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>50000</v>
+      </c>
+      <c r="C27">
+        <v>120</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>400</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B606616B-145A-4C14-982B-0B55759F0A52}">
+  <dimension ref="A1:K51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>50000</v>
+      </c>
+      <c r="C1">
+        <v>0.25</v>
+      </c>
+      <c r="D1">
+        <v>150</v>
+      </c>
+      <c r="E1">
+        <v>300</v>
+      </c>
+      <c r="F1">
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <v>100</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>50000</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>50000</v>
+      </c>
+      <c r="C3">
+        <v>1.25</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>50000</v>
+      </c>
+      <c r="C4">
+        <v>2.5</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>50000</v>
+      </c>
+      <c r="C5">
+        <v>6.25</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>50000</v>
+      </c>
+      <c r="C6">
+        <v>12.5</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -7624,7 +9239,7 @@
         <v>50000</v>
       </c>
       <c r="C7">
-        <v>480</v>
+        <v>18.75</v>
       </c>
       <c r="D7">
         <v>150</v>
@@ -7636,7 +9251,7 @@
         <v>50</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -7645,10 +9260,10 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -7659,7 +9274,7 @@
         <v>50000</v>
       </c>
       <c r="C8">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>150</v>
@@ -7671,7 +9286,7 @@
         <v>50</v>
       </c>
       <c r="G8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -7680,10 +9295,10 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -7694,7 +9309,7 @@
         <v>50000</v>
       </c>
       <c r="C9">
-        <v>480</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>150</v>
@@ -7715,10 +9330,10 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -7729,7 +9344,7 @@
         <v>50000</v>
       </c>
       <c r="C10">
-        <v>480</v>
+        <v>125</v>
       </c>
       <c r="D10">
         <v>150</v>
@@ -7741,7 +9356,7 @@
         <v>50</v>
       </c>
       <c r="G10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -7750,10 +9365,10 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -7764,7 +9379,7 @@
         <v>50000</v>
       </c>
       <c r="C11">
-        <v>480</v>
+        <v>187.5</v>
       </c>
       <c r="D11">
         <v>150</v>
@@ -7776,7 +9391,7 @@
         <v>50</v>
       </c>
       <c r="G11">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -7785,45 +9400,45 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>50000</v>
-      </c>
-      <c r="C13">
-        <v>480</v>
-      </c>
-      <c r="D13">
-        <v>150</v>
-      </c>
-      <c r="E13">
-        <v>300</v>
-      </c>
-      <c r="F13">
-        <v>50</v>
-      </c>
-      <c r="G13">
-        <v>25</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <v>250</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>50000</v>
+      </c>
+      <c r="C12">
+        <v>250</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7834,7 +9449,7 @@
         <v>50000</v>
       </c>
       <c r="C14">
-        <v>480</v>
+        <v>0.25</v>
       </c>
       <c r="D14">
         <v>150</v>
@@ -7846,7 +9461,7 @@
         <v>50</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -7855,10 +9470,10 @@
         <v>5</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7869,7 +9484,7 @@
         <v>50000</v>
       </c>
       <c r="C15">
-        <v>480</v>
+        <v>0.5</v>
       </c>
       <c r="D15">
         <v>150</v>
@@ -7890,10 +9505,10 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7904,7 +9519,7 @@
         <v>50000</v>
       </c>
       <c r="C16">
-        <v>480</v>
+        <v>1.25</v>
       </c>
       <c r="D16">
         <v>150</v>
@@ -7916,7 +9531,7 @@
         <v>50</v>
       </c>
       <c r="G16">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -7925,10 +9540,10 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -7939,7 +9554,7 @@
         <v>50000</v>
       </c>
       <c r="C17">
-        <v>480</v>
+        <v>2.5</v>
       </c>
       <c r="D17">
         <v>150</v>
@@ -7951,7 +9566,7 @@
         <v>50</v>
       </c>
       <c r="G17">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H17">
         <v>5</v>
@@ -7960,10 +9575,45 @@
         <v>5</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17">
-        <v>250</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>50000</v>
+      </c>
+      <c r="C18">
+        <v>6.25</v>
+      </c>
+      <c r="D18">
+        <v>150</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -7974,7 +9624,7 @@
         <v>50000</v>
       </c>
       <c r="C19">
-        <v>480</v>
+        <v>12.5</v>
       </c>
       <c r="D19">
         <v>150</v>
@@ -7986,7 +9636,7 @@
         <v>50</v>
       </c>
       <c r="G19">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -7995,10 +9645,10 @@
         <v>5</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -8009,7 +9659,7 @@
         <v>50000</v>
       </c>
       <c r="C20">
-        <v>480</v>
+        <v>18.75</v>
       </c>
       <c r="D20">
         <v>150</v>
@@ -8021,7 +9671,7 @@
         <v>50</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -8030,10 +9680,10 @@
         <v>5</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K20">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -8044,7 +9694,7 @@
         <v>50000</v>
       </c>
       <c r="C21">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>150</v>
@@ -8065,10 +9715,10 @@
         <v>5</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -8079,7 +9729,7 @@
         <v>50000</v>
       </c>
       <c r="C22">
-        <v>480</v>
+        <v>50</v>
       </c>
       <c r="D22">
         <v>150</v>
@@ -8091,7 +9741,7 @@
         <v>50</v>
       </c>
       <c r="G22">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H22">
         <v>5</v>
@@ -8100,10 +9750,10 @@
         <v>5</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -8114,7 +9764,7 @@
         <v>50000</v>
       </c>
       <c r="C23">
-        <v>480</v>
+        <v>125</v>
       </c>
       <c r="D23">
         <v>150</v>
@@ -8126,7 +9776,7 @@
         <v>50</v>
       </c>
       <c r="G23">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H23">
         <v>5</v>
@@ -8135,10 +9785,2615 @@
         <v>5</v>
       </c>
       <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>50000</v>
+      </c>
+      <c r="C24">
+        <v>187.5</v>
+      </c>
+      <c r="D24">
+        <v>150</v>
+      </c>
+      <c r="E24">
+        <v>300</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>50000</v>
+      </c>
+      <c r="C25">
+        <v>250</v>
+      </c>
+      <c r="D25">
+        <v>150</v>
+      </c>
+      <c r="E25">
+        <v>300</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>50000</v>
+      </c>
+      <c r="C27">
+        <v>0.25</v>
+      </c>
+      <c r="D27">
+        <v>150</v>
+      </c>
+      <c r="E27">
+        <v>300</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>50000</v>
+      </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
+      <c r="D28">
+        <v>150</v>
+      </c>
+      <c r="E28">
+        <v>300</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>50000</v>
+      </c>
+      <c r="C29">
+        <v>1.25</v>
+      </c>
+      <c r="D29">
+        <v>150</v>
+      </c>
+      <c r="E29">
+        <v>300</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>50000</v>
+      </c>
+      <c r="C30">
+        <v>2.5</v>
+      </c>
+      <c r="D30">
+        <v>150</v>
+      </c>
+      <c r="E30">
+        <v>300</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>50000</v>
+      </c>
+      <c r="C31">
+        <v>6.25</v>
+      </c>
+      <c r="D31">
+        <v>150</v>
+      </c>
+      <c r="E31">
+        <v>300</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>50000</v>
+      </c>
+      <c r="C32">
+        <v>12.5</v>
+      </c>
+      <c r="D32">
+        <v>150</v>
+      </c>
+      <c r="E32">
+        <v>300</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>50000</v>
+      </c>
+      <c r="C33">
+        <v>18.75</v>
+      </c>
+      <c r="D33">
+        <v>150</v>
+      </c>
+      <c r="E33">
+        <v>300</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>50000</v>
+      </c>
+      <c r="C34">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>150</v>
+      </c>
+      <c r="E34">
+        <v>300</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>50000</v>
+      </c>
+      <c r="C35">
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <v>150</v>
+      </c>
+      <c r="E35">
+        <v>300</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>50000</v>
+      </c>
+      <c r="C36">
+        <v>125</v>
+      </c>
+      <c r="D36">
+        <v>150</v>
+      </c>
+      <c r="E36">
+        <v>300</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>50000</v>
+      </c>
+      <c r="C37">
+        <v>187.5</v>
+      </c>
+      <c r="D37">
+        <v>150</v>
+      </c>
+      <c r="E37">
+        <v>300</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>50000</v>
+      </c>
+      <c r="C38">
+        <v>250</v>
+      </c>
+      <c r="D38">
+        <v>150</v>
+      </c>
+      <c r="E38">
+        <v>300</v>
+      </c>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>50000</v>
+      </c>
+      <c r="C40">
+        <v>0.25</v>
+      </c>
+      <c r="D40">
+        <v>150</v>
+      </c>
+      <c r="E40">
+        <v>300</v>
+      </c>
+      <c r="F40">
+        <v>50</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
         <v>4</v>
       </c>
+      <c r="K40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>50000</v>
+      </c>
+      <c r="C41">
+        <v>0.5</v>
+      </c>
+      <c r="D41">
+        <v>150</v>
+      </c>
+      <c r="E41">
+        <v>300</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>50000</v>
+      </c>
+      <c r="C42">
+        <v>1.25</v>
+      </c>
+      <c r="D42">
+        <v>150</v>
+      </c>
+      <c r="E42">
+        <v>300</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>50000</v>
+      </c>
+      <c r="C43">
+        <v>2.5</v>
+      </c>
+      <c r="D43">
+        <v>150</v>
+      </c>
+      <c r="E43">
+        <v>300</v>
+      </c>
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>50000</v>
+      </c>
+      <c r="C44">
+        <v>6.25</v>
+      </c>
+      <c r="D44">
+        <v>150</v>
+      </c>
+      <c r="E44">
+        <v>300</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+      <c r="K44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>50000</v>
+      </c>
+      <c r="C45">
+        <v>12.5</v>
+      </c>
+      <c r="D45">
+        <v>150</v>
+      </c>
+      <c r="E45">
+        <v>300</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="K45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>50000</v>
+      </c>
+      <c r="C46">
+        <v>18.75</v>
+      </c>
+      <c r="D46">
+        <v>150</v>
+      </c>
+      <c r="E46">
+        <v>300</v>
+      </c>
+      <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+      <c r="K46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>50000</v>
+      </c>
+      <c r="C47">
+        <v>25</v>
+      </c>
+      <c r="D47">
+        <v>150</v>
+      </c>
+      <c r="E47">
+        <v>300</v>
+      </c>
+      <c r="F47">
+        <v>50</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>50000</v>
+      </c>
+      <c r="C48">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>150</v>
+      </c>
+      <c r="E48">
+        <v>300</v>
+      </c>
+      <c r="F48">
+        <v>50</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>50000</v>
+      </c>
+      <c r="C49">
+        <v>125</v>
+      </c>
+      <c r="D49">
+        <v>150</v>
+      </c>
+      <c r="E49">
+        <v>300</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>50000</v>
+      </c>
+      <c r="C50">
+        <v>187.5</v>
+      </c>
+      <c r="D50">
+        <v>150</v>
+      </c>
+      <c r="E50">
+        <v>300</v>
+      </c>
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>50000</v>
+      </c>
+      <c r="C51">
+        <v>250</v>
+      </c>
+      <c r="D51">
+        <v>150</v>
+      </c>
+      <c r="E51">
+        <v>300</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <v>100</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73C12-9846-40A4-92D3-774117270749}">
+  <dimension ref="A1:K51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K51" sqref="A1:K51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>50000</v>
+      </c>
+      <c r="C1">
+        <v>120</v>
+      </c>
+      <c r="D1">
+        <v>50</v>
+      </c>
+      <c r="E1">
+        <v>0.25</v>
+      </c>
+      <c r="F1">
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <v>100</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>50000</v>
+      </c>
+      <c r="C2">
+        <v>120</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>50000</v>
+      </c>
+      <c r="C3">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>1.25</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>50000</v>
+      </c>
+      <c r="C4">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>2.5</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>50000</v>
+      </c>
+      <c r="C5">
+        <v>120</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>6.25</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>50000</v>
+      </c>
+      <c r="C6">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>12.5</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>50000</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>18.75</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>50000</v>
+      </c>
+      <c r="C8">
+        <v>120</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>50000</v>
+      </c>
+      <c r="C9">
+        <v>120</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>50000</v>
+      </c>
+      <c r="C10">
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>125</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>50000</v>
+      </c>
+      <c r="C11">
+        <v>120</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>187.5</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>50000</v>
+      </c>
+      <c r="C12">
+        <v>120</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>250</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>50000</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>0.25</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>50000</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>50000</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>1.25</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>50000</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>2.5</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>50000</v>
+      </c>
+      <c r="C18">
+        <v>120</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>6.25</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>50000</v>
+      </c>
+      <c r="C19">
+        <v>120</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>12.5</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>50000</v>
+      </c>
+      <c r="C20">
+        <v>120</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>18.75</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>50000</v>
+      </c>
+      <c r="C21">
+        <v>120</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>50000</v>
+      </c>
+      <c r="C22">
+        <v>120</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>50000</v>
+      </c>
+      <c r="C23">
+        <v>120</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>125</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
       <c r="K23">
-        <v>250</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>50000</v>
+      </c>
+      <c r="C24">
+        <v>120</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>187.5</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>50000</v>
+      </c>
+      <c r="C25">
+        <v>120</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>250</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>50000</v>
+      </c>
+      <c r="C27">
+        <v>120</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>0.25</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>50000</v>
+      </c>
+      <c r="C28">
+        <v>120</v>
+      </c>
+      <c r="D28">
+        <v>50</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>50000</v>
+      </c>
+      <c r="C29">
+        <v>120</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>1.25</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>50000</v>
+      </c>
+      <c r="C30">
+        <v>120</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <v>2.5</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>50000</v>
+      </c>
+      <c r="C31">
+        <v>120</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <v>6.25</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>50000</v>
+      </c>
+      <c r="C32">
+        <v>120</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>12.5</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>50000</v>
+      </c>
+      <c r="C33">
+        <v>120</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>18.75</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>50000</v>
+      </c>
+      <c r="C34">
+        <v>120</v>
+      </c>
+      <c r="D34">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>25</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>50000</v>
+      </c>
+      <c r="C35">
+        <v>120</v>
+      </c>
+      <c r="D35">
+        <v>50</v>
+      </c>
+      <c r="E35">
+        <v>50</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>50000</v>
+      </c>
+      <c r="C36">
+        <v>120</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>125</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>50000</v>
+      </c>
+      <c r="C37">
+        <v>120</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>187.5</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>50000</v>
+      </c>
+      <c r="C38">
+        <v>120</v>
+      </c>
+      <c r="D38">
+        <v>50</v>
+      </c>
+      <c r="E38">
+        <v>250</v>
+      </c>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>50000</v>
+      </c>
+      <c r="C40">
+        <v>120</v>
+      </c>
+      <c r="D40">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>0.25</v>
+      </c>
+      <c r="F40">
+        <v>50</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>50000</v>
+      </c>
+      <c r="C41">
+        <v>120</v>
+      </c>
+      <c r="D41">
+        <v>50</v>
+      </c>
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>50000</v>
+      </c>
+      <c r="C42">
+        <v>120</v>
+      </c>
+      <c r="D42">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>1.25</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>50000</v>
+      </c>
+      <c r="C43">
+        <v>120</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
+      </c>
+      <c r="E43">
+        <v>2.5</v>
+      </c>
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>50000</v>
+      </c>
+      <c r="C44">
+        <v>120</v>
+      </c>
+      <c r="D44">
+        <v>50</v>
+      </c>
+      <c r="E44">
+        <v>6.25</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+      <c r="K44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>50000</v>
+      </c>
+      <c r="C45">
+        <v>120</v>
+      </c>
+      <c r="D45">
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <v>12.5</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="K45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>50000</v>
+      </c>
+      <c r="C46">
+        <v>120</v>
+      </c>
+      <c r="D46">
+        <v>50</v>
+      </c>
+      <c r="E46">
+        <v>18.75</v>
+      </c>
+      <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+      <c r="K46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>50000</v>
+      </c>
+      <c r="C47">
+        <v>120</v>
+      </c>
+      <c r="D47">
+        <v>50</v>
+      </c>
+      <c r="E47">
+        <v>25</v>
+      </c>
+      <c r="F47">
+        <v>50</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>50000</v>
+      </c>
+      <c r="C48">
+        <v>120</v>
+      </c>
+      <c r="D48">
+        <v>50</v>
+      </c>
+      <c r="E48">
+        <v>50</v>
+      </c>
+      <c r="F48">
+        <v>50</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>50000</v>
+      </c>
+      <c r="C49">
+        <v>120</v>
+      </c>
+      <c r="D49">
+        <v>50</v>
+      </c>
+      <c r="E49">
+        <v>125</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>50000</v>
+      </c>
+      <c r="C50">
+        <v>120</v>
+      </c>
+      <c r="D50">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <v>187.5</v>
+      </c>
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>50000</v>
+      </c>
+      <c r="C51">
+        <v>120</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>250</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <v>100</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/script/mOffload.xlsx
+++ b/script/mOffload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\BandwidthUNcertinity\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98991CA-968E-43F5-AE64-D4631A97E819}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6871835-6EE2-4C05-8E7C-71E9EB0DF38C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{60046224-DB48-4D55-9DB3-CD82E3B77A28}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{60046224-DB48-4D55-9DB3-CD82E3B77A28}"/>
   </bookViews>
   <sheets>
     <sheet name="small_t0" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="1">
   <si>
     <t>./mOffloading</t>
   </si>
@@ -387,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED42AF60-AB6E-40CA-87F9-E205799F0A91}">
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="A1:K20"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64:E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,13 +404,13 @@
         <v>50000</v>
       </c>
       <c r="C1">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D1">
         <v>30</v>
       </c>
       <c r="E1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F1">
         <v>50</v>
@@ -428,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="K1">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -439,13 +439,13 @@
         <v>50000</v>
       </c>
       <c r="C2">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D2">
         <v>60</v>
       </c>
       <c r="E2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>50</v>
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -474,13 +474,13 @@
         <v>50000</v>
       </c>
       <c r="C3">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <v>90</v>
       </c>
       <c r="E3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -509,13 +509,13 @@
         <v>50000</v>
       </c>
       <c r="C4">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D4">
         <v>120</v>
       </c>
       <c r="E4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>50</v>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -544,13 +544,13 @@
         <v>50000</v>
       </c>
       <c r="C5">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <v>150</v>
       </c>
       <c r="E5">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>50</v>
@@ -568,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -579,13 +579,13 @@
         <v>50000</v>
       </c>
       <c r="C6">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <v>180</v>
       </c>
       <c r="E6">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>50</v>
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -614,13 +614,13 @@
         <v>50000</v>
       </c>
       <c r="C7">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D7">
         <v>210</v>
       </c>
       <c r="E7">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>50</v>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -649,13 +649,13 @@
         <v>50000</v>
       </c>
       <c r="C8">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>240</v>
       </c>
       <c r="E8">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>50</v>
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -684,13 +684,13 @@
         <v>50000</v>
       </c>
       <c r="C9">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D9">
         <v>270</v>
       </c>
       <c r="E9">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -719,13 +719,13 @@
         <v>50000</v>
       </c>
       <c r="C10">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D10">
         <v>300</v>
       </c>
       <c r="E10">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F10">
         <v>50</v>
@@ -743,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -754,13 +754,13 @@
         <v>50000</v>
       </c>
       <c r="C11">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D11">
         <v>330</v>
       </c>
       <c r="E11">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>50</v>
@@ -778,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -789,13 +789,13 @@
         <v>50000</v>
       </c>
       <c r="C12">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D12">
         <v>360</v>
       </c>
       <c r="E12">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F12">
         <v>50</v>
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -824,13 +824,13 @@
         <v>50000</v>
       </c>
       <c r="C13">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D13">
         <v>390</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <v>50</v>
@@ -848,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -859,13 +859,13 @@
         <v>50000</v>
       </c>
       <c r="C14">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D14">
         <v>420</v>
       </c>
       <c r="E14">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F14">
         <v>50</v>
@@ -883,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -894,13 +894,13 @@
         <v>50000</v>
       </c>
       <c r="C15">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D15">
         <v>450</v>
       </c>
       <c r="E15">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -918,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -929,13 +929,13 @@
         <v>50000</v>
       </c>
       <c r="C16">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D16">
         <v>480</v>
       </c>
       <c r="E16">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F16">
         <v>50</v>
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -964,13 +964,13 @@
         <v>50000</v>
       </c>
       <c r="C17">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D17">
         <v>510</v>
       </c>
       <c r="E17">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F17">
         <v>50</v>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -999,13 +999,13 @@
         <v>50000</v>
       </c>
       <c r="C18">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D18">
         <v>540</v>
       </c>
       <c r="E18">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F18">
         <v>50</v>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1034,13 +1034,13 @@
         <v>50000</v>
       </c>
       <c r="C19">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D19">
         <v>570</v>
       </c>
       <c r="E19">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F19">
         <v>50</v>
@@ -1058,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1069,13 +1069,13 @@
         <v>50000</v>
       </c>
       <c r="C20">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D20">
         <v>600</v>
       </c>
       <c r="E20">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F20">
         <v>50</v>
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1104,13 +1104,13 @@
         <v>50000</v>
       </c>
       <c r="C22">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D22">
         <v>30</v>
       </c>
       <c r="E22">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F22">
         <v>50</v>
@@ -1128,7 +1128,7 @@
         <v>2</v>
       </c>
       <c r="K22">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1139,13 +1139,13 @@
         <v>50000</v>
       </c>
       <c r="C23">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D23">
         <v>60</v>
       </c>
       <c r="E23">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F23">
         <v>50</v>
@@ -1163,7 +1163,7 @@
         <v>2</v>
       </c>
       <c r="K23">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1174,13 +1174,13 @@
         <v>50000</v>
       </c>
       <c r="C24">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D24">
         <v>90</v>
       </c>
       <c r="E24">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F24">
         <v>50</v>
@@ -1198,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="K24">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1209,13 +1209,13 @@
         <v>50000</v>
       </c>
       <c r="C25">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D25">
         <v>120</v>
       </c>
       <c r="E25">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F25">
         <v>50</v>
@@ -1233,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="K25">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1244,13 +1244,13 @@
         <v>50000</v>
       </c>
       <c r="C26">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D26">
         <v>150</v>
       </c>
       <c r="E26">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <v>50</v>
@@ -1268,7 +1268,7 @@
         <v>2</v>
       </c>
       <c r="K26">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1279,13 +1279,13 @@
         <v>50000</v>
       </c>
       <c r="C27">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D27">
         <v>180</v>
       </c>
       <c r="E27">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F27">
         <v>50</v>
@@ -1303,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="K27">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1314,13 +1314,13 @@
         <v>50000</v>
       </c>
       <c r="C28">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D28">
         <v>210</v>
       </c>
       <c r="E28">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F28">
         <v>50</v>
@@ -1338,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="K28">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1349,13 +1349,13 @@
         <v>50000</v>
       </c>
       <c r="C29">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D29">
         <v>240</v>
       </c>
       <c r="E29">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F29">
         <v>50</v>
@@ -1373,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="K29">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1384,13 +1384,13 @@
         <v>50000</v>
       </c>
       <c r="C30">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D30">
         <v>270</v>
       </c>
       <c r="E30">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F30">
         <v>50</v>
@@ -1408,7 +1408,7 @@
         <v>2</v>
       </c>
       <c r="K30">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1419,13 +1419,13 @@
         <v>50000</v>
       </c>
       <c r="C31">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D31">
         <v>300</v>
       </c>
       <c r="E31">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F31">
         <v>50</v>
@@ -1443,7 +1443,7 @@
         <v>2</v>
       </c>
       <c r="K31">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1454,13 +1454,13 @@
         <v>50000</v>
       </c>
       <c r="C32">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D32">
         <v>330</v>
       </c>
       <c r="E32">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F32">
         <v>50</v>
@@ -1478,7 +1478,7 @@
         <v>2</v>
       </c>
       <c r="K32">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1489,13 +1489,13 @@
         <v>50000</v>
       </c>
       <c r="C33">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D33">
         <v>360</v>
       </c>
       <c r="E33">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F33">
         <v>50</v>
@@ -1513,7 +1513,7 @@
         <v>2</v>
       </c>
       <c r="K33">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1524,13 +1524,13 @@
         <v>50000</v>
       </c>
       <c r="C34">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D34">
         <v>390</v>
       </c>
       <c r="E34">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F34">
         <v>50</v>
@@ -1548,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="K34">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1559,13 +1559,13 @@
         <v>50000</v>
       </c>
       <c r="C35">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D35">
         <v>420</v>
       </c>
       <c r="E35">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F35">
         <v>50</v>
@@ -1583,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="K35">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1594,13 +1594,13 @@
         <v>50000</v>
       </c>
       <c r="C36">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D36">
         <v>450</v>
       </c>
       <c r="E36">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F36">
         <v>50</v>
@@ -1618,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="K36">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1629,13 +1629,13 @@
         <v>50000</v>
       </c>
       <c r="C37">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D37">
         <v>480</v>
       </c>
       <c r="E37">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F37">
         <v>50</v>
@@ -1653,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="K37">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1664,13 +1664,13 @@
         <v>50000</v>
       </c>
       <c r="C38">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D38">
         <v>510</v>
       </c>
       <c r="E38">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F38">
         <v>50</v>
@@ -1688,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="K38">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -1699,13 +1699,13 @@
         <v>50000</v>
       </c>
       <c r="C39">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D39">
         <v>540</v>
       </c>
       <c r="E39">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F39">
         <v>50</v>
@@ -1723,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="K39">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -1734,13 +1734,13 @@
         <v>50000</v>
       </c>
       <c r="C40">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D40">
         <v>570</v>
       </c>
       <c r="E40">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F40">
         <v>50</v>
@@ -1758,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="K40">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -1769,13 +1769,13 @@
         <v>50000</v>
       </c>
       <c r="C41">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D41">
         <v>600</v>
       </c>
       <c r="E41">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F41">
         <v>50</v>
@@ -1793,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="K41">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -1804,13 +1804,13 @@
         <v>50000</v>
       </c>
       <c r="C43">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D43">
         <v>30</v>
       </c>
       <c r="E43">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F43">
         <v>50</v>
@@ -1828,7 +1828,7 @@
         <v>3</v>
       </c>
       <c r="K43">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -1839,13 +1839,13 @@
         <v>50000</v>
       </c>
       <c r="C44">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D44">
         <v>60</v>
       </c>
       <c r="E44">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F44">
         <v>50</v>
@@ -1863,7 +1863,7 @@
         <v>3</v>
       </c>
       <c r="K44">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -1874,13 +1874,13 @@
         <v>50000</v>
       </c>
       <c r="C45">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D45">
         <v>90</v>
       </c>
       <c r="E45">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F45">
         <v>50</v>
@@ -1898,7 +1898,7 @@
         <v>3</v>
       </c>
       <c r="K45">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -1909,13 +1909,13 @@
         <v>50000</v>
       </c>
       <c r="C46">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D46">
         <v>120</v>
       </c>
       <c r="E46">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F46">
         <v>50</v>
@@ -1933,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="K46">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -1944,13 +1944,13 @@
         <v>50000</v>
       </c>
       <c r="C47">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D47">
         <v>150</v>
       </c>
       <c r="E47">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F47">
         <v>50</v>
@@ -1968,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="K47">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -1979,13 +1979,13 @@
         <v>50000</v>
       </c>
       <c r="C48">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D48">
         <v>180</v>
       </c>
       <c r="E48">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F48">
         <v>50</v>
@@ -2003,7 +2003,7 @@
         <v>3</v>
       </c>
       <c r="K48">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2014,13 +2014,13 @@
         <v>50000</v>
       </c>
       <c r="C49">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D49">
         <v>210</v>
       </c>
       <c r="E49">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F49">
         <v>50</v>
@@ -2038,7 +2038,7 @@
         <v>3</v>
       </c>
       <c r="K49">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2049,13 +2049,13 @@
         <v>50000</v>
       </c>
       <c r="C50">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D50">
         <v>240</v>
       </c>
       <c r="E50">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F50">
         <v>50</v>
@@ -2073,7 +2073,7 @@
         <v>3</v>
       </c>
       <c r="K50">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2084,13 +2084,13 @@
         <v>50000</v>
       </c>
       <c r="C51">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D51">
         <v>270</v>
       </c>
       <c r="E51">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -2108,7 +2108,7 @@
         <v>3</v>
       </c>
       <c r="K51">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2119,13 +2119,13 @@
         <v>50000</v>
       </c>
       <c r="C52">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D52">
         <v>300</v>
       </c>
       <c r="E52">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F52">
         <v>50</v>
@@ -2143,7 +2143,7 @@
         <v>3</v>
       </c>
       <c r="K52">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2154,13 +2154,13 @@
         <v>50000</v>
       </c>
       <c r="C53">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D53">
         <v>330</v>
       </c>
       <c r="E53">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F53">
         <v>50</v>
@@ -2178,7 +2178,7 @@
         <v>3</v>
       </c>
       <c r="K53">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2189,13 +2189,13 @@
         <v>50000</v>
       </c>
       <c r="C54">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D54">
         <v>360</v>
       </c>
       <c r="E54">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F54">
         <v>50</v>
@@ -2213,7 +2213,7 @@
         <v>3</v>
       </c>
       <c r="K54">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2224,13 +2224,13 @@
         <v>50000</v>
       </c>
       <c r="C55">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D55">
         <v>390</v>
       </c>
       <c r="E55">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F55">
         <v>50</v>
@@ -2248,7 +2248,7 @@
         <v>3</v>
       </c>
       <c r="K55">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2259,13 +2259,13 @@
         <v>50000</v>
       </c>
       <c r="C56">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D56">
         <v>420</v>
       </c>
       <c r="E56">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F56">
         <v>50</v>
@@ -2283,7 +2283,7 @@
         <v>3</v>
       </c>
       <c r="K56">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -2294,13 +2294,13 @@
         <v>50000</v>
       </c>
       <c r="C57">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D57">
         <v>450</v>
       </c>
       <c r="E57">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F57">
         <v>50</v>
@@ -2318,7 +2318,7 @@
         <v>3</v>
       </c>
       <c r="K57">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -2329,13 +2329,13 @@
         <v>50000</v>
       </c>
       <c r="C58">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D58">
         <v>480</v>
       </c>
       <c r="E58">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F58">
         <v>50</v>
@@ -2353,7 +2353,7 @@
         <v>3</v>
       </c>
       <c r="K58">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -2364,13 +2364,13 @@
         <v>50000</v>
       </c>
       <c r="C59">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D59">
         <v>510</v>
       </c>
       <c r="E59">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F59">
         <v>50</v>
@@ -2388,7 +2388,7 @@
         <v>3</v>
       </c>
       <c r="K59">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -2399,13 +2399,13 @@
         <v>50000</v>
       </c>
       <c r="C60">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D60">
         <v>540</v>
       </c>
       <c r="E60">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F60">
         <v>50</v>
@@ -2423,7 +2423,7 @@
         <v>3</v>
       </c>
       <c r="K60">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -2434,13 +2434,13 @@
         <v>50000</v>
       </c>
       <c r="C61">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D61">
         <v>570</v>
       </c>
       <c r="E61">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F61">
         <v>50</v>
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="K61">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -2469,13 +2469,13 @@
         <v>50000</v>
       </c>
       <c r="C62">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D62">
         <v>600</v>
       </c>
       <c r="E62">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F62">
         <v>50</v>
@@ -2493,7 +2493,7 @@
         <v>3</v>
       </c>
       <c r="K62">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -2504,13 +2504,13 @@
         <v>50000</v>
       </c>
       <c r="C64">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D64">
         <v>30</v>
       </c>
       <c r="E64">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F64">
         <v>50</v>
@@ -2528,7 +2528,7 @@
         <v>4</v>
       </c>
       <c r="K64">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -2539,13 +2539,13 @@
         <v>50000</v>
       </c>
       <c r="C65">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D65">
         <v>60</v>
       </c>
       <c r="E65">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F65">
         <v>50</v>
@@ -2563,7 +2563,7 @@
         <v>4</v>
       </c>
       <c r="K65">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -2574,13 +2574,13 @@
         <v>50000</v>
       </c>
       <c r="C66">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D66">
         <v>90</v>
       </c>
       <c r="E66">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F66">
         <v>50</v>
@@ -2598,7 +2598,7 @@
         <v>4</v>
       </c>
       <c r="K66">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -2609,13 +2609,13 @@
         <v>50000</v>
       </c>
       <c r="C67">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D67">
         <v>120</v>
       </c>
       <c r="E67">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F67">
         <v>50</v>
@@ -2633,7 +2633,7 @@
         <v>4</v>
       </c>
       <c r="K67">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -2644,13 +2644,13 @@
         <v>50000</v>
       </c>
       <c r="C68">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D68">
         <v>150</v>
       </c>
       <c r="E68">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F68">
         <v>50</v>
@@ -2668,7 +2668,7 @@
         <v>4</v>
       </c>
       <c r="K68">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -2679,13 +2679,13 @@
         <v>50000</v>
       </c>
       <c r="C69">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D69">
         <v>180</v>
       </c>
       <c r="E69">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F69">
         <v>50</v>
@@ -2703,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="K69">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -2714,13 +2714,13 @@
         <v>50000</v>
       </c>
       <c r="C70">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D70">
         <v>210</v>
       </c>
       <c r="E70">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F70">
         <v>50</v>
@@ -2738,7 +2738,7 @@
         <v>4</v>
       </c>
       <c r="K70">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -2749,13 +2749,13 @@
         <v>50000</v>
       </c>
       <c r="C71">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D71">
         <v>240</v>
       </c>
       <c r="E71">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F71">
         <v>50</v>
@@ -2773,7 +2773,7 @@
         <v>4</v>
       </c>
       <c r="K71">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -2784,13 +2784,13 @@
         <v>50000</v>
       </c>
       <c r="C72">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D72">
         <v>270</v>
       </c>
       <c r="E72">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F72">
         <v>50</v>
@@ -2808,7 +2808,7 @@
         <v>4</v>
       </c>
       <c r="K72">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -2819,13 +2819,13 @@
         <v>50000</v>
       </c>
       <c r="C73">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D73">
         <v>300</v>
       </c>
       <c r="E73">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F73">
         <v>50</v>
@@ -2843,7 +2843,7 @@
         <v>4</v>
       </c>
       <c r="K73">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -2854,13 +2854,13 @@
         <v>50000</v>
       </c>
       <c r="C74">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D74">
         <v>330</v>
       </c>
       <c r="E74">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F74">
         <v>50</v>
@@ -2878,7 +2878,7 @@
         <v>4</v>
       </c>
       <c r="K74">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -2889,13 +2889,13 @@
         <v>50000</v>
       </c>
       <c r="C75">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D75">
         <v>360</v>
       </c>
       <c r="E75">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F75">
         <v>50</v>
@@ -2913,7 +2913,7 @@
         <v>4</v>
       </c>
       <c r="K75">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -2924,13 +2924,13 @@
         <v>50000</v>
       </c>
       <c r="C76">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D76">
         <v>390</v>
       </c>
       <c r="E76">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F76">
         <v>50</v>
@@ -2948,7 +2948,7 @@
         <v>4</v>
       </c>
       <c r="K76">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -2959,13 +2959,13 @@
         <v>50000</v>
       </c>
       <c r="C77">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D77">
         <v>420</v>
       </c>
       <c r="E77">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F77">
         <v>50</v>
@@ -2983,7 +2983,7 @@
         <v>4</v>
       </c>
       <c r="K77">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -2994,13 +2994,13 @@
         <v>50000</v>
       </c>
       <c r="C78">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D78">
         <v>450</v>
       </c>
       <c r="E78">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F78">
         <v>50</v>
@@ -3018,7 +3018,7 @@
         <v>4</v>
       </c>
       <c r="K78">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3029,13 +3029,13 @@
         <v>50000</v>
       </c>
       <c r="C79">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D79">
         <v>480</v>
       </c>
       <c r="E79">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F79">
         <v>50</v>
@@ -3053,7 +3053,7 @@
         <v>4</v>
       </c>
       <c r="K79">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3064,13 +3064,13 @@
         <v>50000</v>
       </c>
       <c r="C80">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D80">
         <v>510</v>
       </c>
       <c r="E80">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F80">
         <v>50</v>
@@ -3088,7 +3088,7 @@
         <v>4</v>
       </c>
       <c r="K80">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -3099,13 +3099,13 @@
         <v>50000</v>
       </c>
       <c r="C81">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D81">
         <v>540</v>
       </c>
       <c r="E81">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F81">
         <v>50</v>
@@ -3123,7 +3123,7 @@
         <v>4</v>
       </c>
       <c r="K81">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -3134,13 +3134,13 @@
         <v>50000</v>
       </c>
       <c r="C82">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D82">
         <v>570</v>
       </c>
       <c r="E82">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F82">
         <v>50</v>
@@ -3158,7 +3158,7 @@
         <v>4</v>
       </c>
       <c r="K82">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -3169,13 +3169,13 @@
         <v>50000</v>
       </c>
       <c r="C83">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D83">
         <v>600</v>
       </c>
       <c r="E83">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F83">
         <v>50</v>
@@ -3193,7 +3193,7 @@
         <v>4</v>
       </c>
       <c r="K83">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3209,7 +3209,7 @@
   <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:K1"/>
+      <selection activeCell="K83" sqref="A1:K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3222,10 +3222,10 @@
         <v>50000</v>
       </c>
       <c r="C1">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D1">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E1">
         <v>30</v>
@@ -3246,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="K1">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3257,10 +3257,10 @@
         <v>50000</v>
       </c>
       <c r="C2">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D2">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>60</v>
@@ -3281,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3292,10 +3292,10 @@
         <v>50000</v>
       </c>
       <c r="C3">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D3">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>90</v>
@@ -3316,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3327,10 +3327,10 @@
         <v>50000</v>
       </c>
       <c r="C4">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>120</v>
@@ -3351,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3362,10 +3362,10 @@
         <v>50000</v>
       </c>
       <c r="C5">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>150</v>
@@ -3386,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3397,10 +3397,10 @@
         <v>50000</v>
       </c>
       <c r="C6">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D6">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>180</v>
@@ -3421,7 +3421,7 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3432,10 +3432,10 @@
         <v>50000</v>
       </c>
       <c r="C7">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D7">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>210</v>
@@ -3456,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3467,10 +3467,10 @@
         <v>50000</v>
       </c>
       <c r="C8">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D8">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>240</v>
@@ -3491,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3502,10 +3502,10 @@
         <v>50000</v>
       </c>
       <c r="C9">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D9">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>270</v>
@@ -3526,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3537,10 +3537,10 @@
         <v>50000</v>
       </c>
       <c r="C10">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D10">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>300</v>
@@ -3561,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3572,10 +3572,10 @@
         <v>50000</v>
       </c>
       <c r="C11">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D11">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>330</v>
@@ -3596,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3607,10 +3607,10 @@
         <v>50000</v>
       </c>
       <c r="C12">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D12">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>360</v>
@@ -3631,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3642,10 +3642,10 @@
         <v>50000</v>
       </c>
       <c r="C13">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D13">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>390</v>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3677,10 +3677,10 @@
         <v>50000</v>
       </c>
       <c r="C14">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D14">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>420</v>
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3712,10 +3712,10 @@
         <v>50000</v>
       </c>
       <c r="C15">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D15">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E15">
         <v>450</v>
@@ -3736,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3747,10 +3747,10 @@
         <v>50000</v>
       </c>
       <c r="C16">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D16">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>480</v>
@@ -3771,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3782,10 +3782,10 @@
         <v>50000</v>
       </c>
       <c r="C17">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D17">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E17">
         <v>510</v>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3817,10 +3817,10 @@
         <v>50000</v>
       </c>
       <c r="C18">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D18">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <v>540</v>
@@ -3841,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3852,10 +3852,10 @@
         <v>50000</v>
       </c>
       <c r="C19">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>570</v>
@@ -3876,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3887,10 +3887,10 @@
         <v>50000</v>
       </c>
       <c r="C20">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D20">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>600</v>
@@ -3911,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3922,10 +3922,10 @@
         <v>50000</v>
       </c>
       <c r="C22">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D22">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E22">
         <v>30</v>
@@ -3946,7 +3946,7 @@
         <v>2</v>
       </c>
       <c r="K22">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3957,10 +3957,10 @@
         <v>50000</v>
       </c>
       <c r="C23">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D23">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>60</v>
@@ -3981,7 +3981,7 @@
         <v>2</v>
       </c>
       <c r="K23">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3992,10 +3992,10 @@
         <v>50000</v>
       </c>
       <c r="C24">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D24">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>90</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="K24">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -4027,10 +4027,10 @@
         <v>50000</v>
       </c>
       <c r="C25">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D25">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <v>120</v>
@@ -4051,7 +4051,7 @@
         <v>2</v>
       </c>
       <c r="K25">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -4062,10 +4062,10 @@
         <v>50000</v>
       </c>
       <c r="C26">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D26">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E26">
         <v>150</v>
@@ -4086,7 +4086,7 @@
         <v>2</v>
       </c>
       <c r="K26">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -4097,10 +4097,10 @@
         <v>50000</v>
       </c>
       <c r="C27">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D27">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E27">
         <v>180</v>
@@ -4121,7 +4121,7 @@
         <v>2</v>
       </c>
       <c r="K27">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -4132,10 +4132,10 @@
         <v>50000</v>
       </c>
       <c r="C28">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D28">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E28">
         <v>210</v>
@@ -4156,7 +4156,7 @@
         <v>2</v>
       </c>
       <c r="K28">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -4167,10 +4167,10 @@
         <v>50000</v>
       </c>
       <c r="C29">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D29">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E29">
         <v>240</v>
@@ -4191,7 +4191,7 @@
         <v>2</v>
       </c>
       <c r="K29">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -4202,10 +4202,10 @@
         <v>50000</v>
       </c>
       <c r="C30">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D30">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E30">
         <v>270</v>
@@ -4226,7 +4226,7 @@
         <v>2</v>
       </c>
       <c r="K30">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -4237,10 +4237,10 @@
         <v>50000</v>
       </c>
       <c r="C31">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D31">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E31">
         <v>300</v>
@@ -4261,7 +4261,7 @@
         <v>2</v>
       </c>
       <c r="K31">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -4272,10 +4272,10 @@
         <v>50000</v>
       </c>
       <c r="C32">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D32">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E32">
         <v>330</v>
@@ -4296,7 +4296,7 @@
         <v>2</v>
       </c>
       <c r="K32">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -4307,10 +4307,10 @@
         <v>50000</v>
       </c>
       <c r="C33">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D33">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E33">
         <v>360</v>
@@ -4331,7 +4331,7 @@
         <v>2</v>
       </c>
       <c r="K33">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -4342,10 +4342,10 @@
         <v>50000</v>
       </c>
       <c r="C34">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D34">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E34">
         <v>390</v>
@@ -4366,7 +4366,7 @@
         <v>2</v>
       </c>
       <c r="K34">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -4377,10 +4377,10 @@
         <v>50000</v>
       </c>
       <c r="C35">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D35">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E35">
         <v>420</v>
@@ -4401,7 +4401,7 @@
         <v>2</v>
       </c>
       <c r="K35">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -4412,10 +4412,10 @@
         <v>50000</v>
       </c>
       <c r="C36">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D36">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E36">
         <v>450</v>
@@ -4436,7 +4436,7 @@
         <v>2</v>
       </c>
       <c r="K36">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -4447,10 +4447,10 @@
         <v>50000</v>
       </c>
       <c r="C37">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D37">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E37">
         <v>480</v>
@@ -4471,7 +4471,7 @@
         <v>2</v>
       </c>
       <c r="K37">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -4482,10 +4482,10 @@
         <v>50000</v>
       </c>
       <c r="C38">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D38">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E38">
         <v>510</v>
@@ -4506,7 +4506,7 @@
         <v>2</v>
       </c>
       <c r="K38">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -4517,10 +4517,10 @@
         <v>50000</v>
       </c>
       <c r="C39">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D39">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E39">
         <v>540</v>
@@ -4541,7 +4541,7 @@
         <v>2</v>
       </c>
       <c r="K39">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -4552,10 +4552,10 @@
         <v>50000</v>
       </c>
       <c r="C40">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D40">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E40">
         <v>570</v>
@@ -4576,7 +4576,7 @@
         <v>2</v>
       </c>
       <c r="K40">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -4587,10 +4587,10 @@
         <v>50000</v>
       </c>
       <c r="C41">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D41">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E41">
         <v>600</v>
@@ -4611,7 +4611,7 @@
         <v>2</v>
       </c>
       <c r="K41">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -4622,10 +4622,10 @@
         <v>50000</v>
       </c>
       <c r="C43">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D43">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E43">
         <v>30</v>
@@ -4646,7 +4646,7 @@
         <v>3</v>
       </c>
       <c r="K43">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -4657,10 +4657,10 @@
         <v>50000</v>
       </c>
       <c r="C44">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D44">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E44">
         <v>60</v>
@@ -4681,7 +4681,7 @@
         <v>3</v>
       </c>
       <c r="K44">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -4692,10 +4692,10 @@
         <v>50000</v>
       </c>
       <c r="C45">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D45">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E45">
         <v>90</v>
@@ -4716,7 +4716,7 @@
         <v>3</v>
       </c>
       <c r="K45">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -4727,10 +4727,10 @@
         <v>50000</v>
       </c>
       <c r="C46">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D46">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E46">
         <v>120</v>
@@ -4751,7 +4751,7 @@
         <v>3</v>
       </c>
       <c r="K46">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -4762,10 +4762,10 @@
         <v>50000</v>
       </c>
       <c r="C47">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D47">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E47">
         <v>150</v>
@@ -4786,7 +4786,7 @@
         <v>3</v>
       </c>
       <c r="K47">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -4797,10 +4797,10 @@
         <v>50000</v>
       </c>
       <c r="C48">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D48">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E48">
         <v>180</v>
@@ -4821,7 +4821,7 @@
         <v>3</v>
       </c>
       <c r="K48">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -4832,10 +4832,10 @@
         <v>50000</v>
       </c>
       <c r="C49">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D49">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E49">
         <v>210</v>
@@ -4856,7 +4856,7 @@
         <v>3</v>
       </c>
       <c r="K49">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -4867,10 +4867,10 @@
         <v>50000</v>
       </c>
       <c r="C50">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D50">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E50">
         <v>240</v>
@@ -4891,7 +4891,7 @@
         <v>3</v>
       </c>
       <c r="K50">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -4902,10 +4902,10 @@
         <v>50000</v>
       </c>
       <c r="C51">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D51">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E51">
         <v>270</v>
@@ -4926,7 +4926,7 @@
         <v>3</v>
       </c>
       <c r="K51">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4937,10 +4937,10 @@
         <v>50000</v>
       </c>
       <c r="C52">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D52">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E52">
         <v>300</v>
@@ -4961,7 +4961,7 @@
         <v>3</v>
       </c>
       <c r="K52">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -4972,10 +4972,10 @@
         <v>50000</v>
       </c>
       <c r="C53">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D53">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E53">
         <v>330</v>
@@ -4996,7 +4996,7 @@
         <v>3</v>
       </c>
       <c r="K53">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -5007,10 +5007,10 @@
         <v>50000</v>
       </c>
       <c r="C54">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D54">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E54">
         <v>360</v>
@@ -5031,7 +5031,7 @@
         <v>3</v>
       </c>
       <c r="K54">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -5042,10 +5042,10 @@
         <v>50000</v>
       </c>
       <c r="C55">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D55">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E55">
         <v>390</v>
@@ -5066,7 +5066,7 @@
         <v>3</v>
       </c>
       <c r="K55">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -5077,10 +5077,10 @@
         <v>50000</v>
       </c>
       <c r="C56">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D56">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E56">
         <v>420</v>
@@ -5101,7 +5101,7 @@
         <v>3</v>
       </c>
       <c r="K56">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -5112,10 +5112,10 @@
         <v>50000</v>
       </c>
       <c r="C57">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D57">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E57">
         <v>450</v>
@@ -5136,7 +5136,7 @@
         <v>3</v>
       </c>
       <c r="K57">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -5147,10 +5147,10 @@
         <v>50000</v>
       </c>
       <c r="C58">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D58">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E58">
         <v>480</v>
@@ -5171,7 +5171,7 @@
         <v>3</v>
       </c>
       <c r="K58">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -5182,10 +5182,10 @@
         <v>50000</v>
       </c>
       <c r="C59">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D59">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E59">
         <v>510</v>
@@ -5206,7 +5206,7 @@
         <v>3</v>
       </c>
       <c r="K59">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -5217,10 +5217,10 @@
         <v>50000</v>
       </c>
       <c r="C60">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D60">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E60">
         <v>540</v>
@@ -5241,7 +5241,7 @@
         <v>3</v>
       </c>
       <c r="K60">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -5252,10 +5252,10 @@
         <v>50000</v>
       </c>
       <c r="C61">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D61">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E61">
         <v>570</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="K61">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -5287,10 +5287,10 @@
         <v>50000</v>
       </c>
       <c r="C62">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D62">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E62">
         <v>600</v>
@@ -5311,7 +5311,7 @@
         <v>3</v>
       </c>
       <c r="K62">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -5322,10 +5322,10 @@
         <v>50000</v>
       </c>
       <c r="C64">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D64">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E64">
         <v>30</v>
@@ -5346,7 +5346,7 @@
         <v>4</v>
       </c>
       <c r="K64">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -5357,10 +5357,10 @@
         <v>50000</v>
       </c>
       <c r="C65">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D65">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E65">
         <v>60</v>
@@ -5381,7 +5381,7 @@
         <v>4</v>
       </c>
       <c r="K65">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -5392,10 +5392,10 @@
         <v>50000</v>
       </c>
       <c r="C66">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D66">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E66">
         <v>90</v>
@@ -5416,7 +5416,7 @@
         <v>4</v>
       </c>
       <c r="K66">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -5427,10 +5427,10 @@
         <v>50000</v>
       </c>
       <c r="C67">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D67">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E67">
         <v>120</v>
@@ -5451,7 +5451,7 @@
         <v>4</v>
       </c>
       <c r="K67">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -5462,10 +5462,10 @@
         <v>50000</v>
       </c>
       <c r="C68">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D68">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E68">
         <v>150</v>
@@ -5486,7 +5486,7 @@
         <v>4</v>
       </c>
       <c r="K68">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -5497,10 +5497,10 @@
         <v>50000</v>
       </c>
       <c r="C69">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D69">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E69">
         <v>180</v>
@@ -5521,7 +5521,7 @@
         <v>4</v>
       </c>
       <c r="K69">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -5532,10 +5532,10 @@
         <v>50000</v>
       </c>
       <c r="C70">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D70">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E70">
         <v>210</v>
@@ -5556,7 +5556,7 @@
         <v>4</v>
       </c>
       <c r="K70">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -5567,10 +5567,10 @@
         <v>50000</v>
       </c>
       <c r="C71">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D71">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E71">
         <v>240</v>
@@ -5591,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="K71">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -5602,10 +5602,10 @@
         <v>50000</v>
       </c>
       <c r="C72">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D72">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E72">
         <v>270</v>
@@ -5626,7 +5626,7 @@
         <v>4</v>
       </c>
       <c r="K72">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -5637,10 +5637,10 @@
         <v>50000</v>
       </c>
       <c r="C73">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D73">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E73">
         <v>300</v>
@@ -5661,7 +5661,7 @@
         <v>4</v>
       </c>
       <c r="K73">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -5672,10 +5672,10 @@
         <v>50000</v>
       </c>
       <c r="C74">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D74">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E74">
         <v>330</v>
@@ -5696,7 +5696,7 @@
         <v>4</v>
       </c>
       <c r="K74">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -5707,10 +5707,10 @@
         <v>50000</v>
       </c>
       <c r="C75">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D75">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E75">
         <v>360</v>
@@ -5731,7 +5731,7 @@
         <v>4</v>
       </c>
       <c r="K75">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -5742,10 +5742,10 @@
         <v>50000</v>
       </c>
       <c r="C76">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D76">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E76">
         <v>390</v>
@@ -5766,7 +5766,7 @@
         <v>4</v>
       </c>
       <c r="K76">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -5777,10 +5777,10 @@
         <v>50000</v>
       </c>
       <c r="C77">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D77">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E77">
         <v>420</v>
@@ -5801,7 +5801,7 @@
         <v>4</v>
       </c>
       <c r="K77">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -5812,10 +5812,10 @@
         <v>50000</v>
       </c>
       <c r="C78">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D78">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E78">
         <v>450</v>
@@ -5836,7 +5836,7 @@
         <v>4</v>
       </c>
       <c r="K78">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -5847,10 +5847,10 @@
         <v>50000</v>
       </c>
       <c r="C79">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D79">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E79">
         <v>480</v>
@@ -5871,7 +5871,7 @@
         <v>4</v>
       </c>
       <c r="K79">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -5882,10 +5882,10 @@
         <v>50000</v>
       </c>
       <c r="C80">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D80">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E80">
         <v>510</v>
@@ -5906,7 +5906,7 @@
         <v>4</v>
       </c>
       <c r="K80">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -5917,10 +5917,10 @@
         <v>50000</v>
       </c>
       <c r="C81">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D81">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E81">
         <v>540</v>
@@ -5941,7 +5941,7 @@
         <v>4</v>
       </c>
       <c r="K81">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -5952,10 +5952,10 @@
         <v>50000</v>
       </c>
       <c r="C82">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D82">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E82">
         <v>570</v>
@@ -5976,7 +5976,7 @@
         <v>4</v>
       </c>
       <c r="K82">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -5987,10 +5987,10 @@
         <v>50000</v>
       </c>
       <c r="C83">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D83">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E83">
         <v>600</v>
@@ -6011,7 +6011,7 @@
         <v>4</v>
       </c>
       <c r="K83">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6023,8 +6023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE55BE6-D978-4642-B060-3921FBB83C8B}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34:K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6037,7 +6037,7 @@
         <v>50000</v>
       </c>
       <c r="C1">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D1">
         <v>150</v>
@@ -6061,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="K1">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -6072,7 +6072,7 @@
         <v>50000</v>
       </c>
       <c r="C2">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D2">
         <v>150</v>
@@ -6096,7 +6096,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6107,7 +6107,7 @@
         <v>50000</v>
       </c>
       <c r="C3">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <v>150</v>
@@ -6131,7 +6131,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6142,7 +6142,7 @@
         <v>50000</v>
       </c>
       <c r="C4">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D4">
         <v>150</v>
@@ -6166,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6177,7 +6177,7 @@
         <v>50000</v>
       </c>
       <c r="C5">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <v>150</v>
@@ -6201,7 +6201,7 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6212,7 +6212,7 @@
         <v>50000</v>
       </c>
       <c r="C6">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <v>150</v>
@@ -6236,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6247,7 +6247,7 @@
         <v>50000</v>
       </c>
       <c r="C7">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D7">
         <v>150</v>
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6282,7 +6282,7 @@
         <v>50000</v>
       </c>
       <c r="C8">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>150</v>
@@ -6306,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6317,7 +6317,7 @@
         <v>50000</v>
       </c>
       <c r="C9">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D9">
         <v>150</v>
@@ -6341,7 +6341,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6352,7 +6352,7 @@
         <v>50000</v>
       </c>
       <c r="C10">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D10">
         <v>150</v>
@@ -6376,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6387,7 +6387,7 @@
         <v>50000</v>
       </c>
       <c r="C12">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D12">
         <v>150</v>
@@ -6411,7 +6411,7 @@
         <v>2</v>
       </c>
       <c r="K12">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6422,7 +6422,7 @@
         <v>50000</v>
       </c>
       <c r="C13">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D13">
         <v>150</v>
@@ -6446,7 +6446,7 @@
         <v>2</v>
       </c>
       <c r="K13">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6457,7 +6457,7 @@
         <v>50000</v>
       </c>
       <c r="C14">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D14">
         <v>150</v>
@@ -6481,7 +6481,7 @@
         <v>2</v>
       </c>
       <c r="K14">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6492,7 +6492,7 @@
         <v>50000</v>
       </c>
       <c r="C15">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D15">
         <v>150</v>
@@ -6516,7 +6516,7 @@
         <v>2</v>
       </c>
       <c r="K15">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6527,7 +6527,7 @@
         <v>50000</v>
       </c>
       <c r="C16">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D16">
         <v>150</v>
@@ -6551,7 +6551,7 @@
         <v>2</v>
       </c>
       <c r="K16">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -6562,7 +6562,7 @@
         <v>50000</v>
       </c>
       <c r="C17">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D17">
         <v>150</v>
@@ -6586,7 +6586,7 @@
         <v>2</v>
       </c>
       <c r="K17">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6597,7 +6597,7 @@
         <v>50000</v>
       </c>
       <c r="C18">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D18">
         <v>150</v>
@@ -6621,7 +6621,7 @@
         <v>2</v>
       </c>
       <c r="K18">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6632,7 +6632,7 @@
         <v>50000</v>
       </c>
       <c r="C19">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D19">
         <v>150</v>
@@ -6656,7 +6656,7 @@
         <v>2</v>
       </c>
       <c r="K19">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -6667,7 +6667,7 @@
         <v>50000</v>
       </c>
       <c r="C20">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D20">
         <v>150</v>
@@ -6691,7 +6691,7 @@
         <v>2</v>
       </c>
       <c r="K20">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -6702,7 +6702,7 @@
         <v>50000</v>
       </c>
       <c r="C21">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D21">
         <v>150</v>
@@ -6726,7 +6726,7 @@
         <v>2</v>
       </c>
       <c r="K21">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -6737,7 +6737,7 @@
         <v>50000</v>
       </c>
       <c r="C23">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D23">
         <v>150</v>
@@ -6761,7 +6761,7 @@
         <v>3</v>
       </c>
       <c r="K23">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -6772,7 +6772,7 @@
         <v>50000</v>
       </c>
       <c r="C24">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D24">
         <v>150</v>
@@ -6796,7 +6796,7 @@
         <v>3</v>
       </c>
       <c r="K24">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -6807,7 +6807,7 @@
         <v>50000</v>
       </c>
       <c r="C25">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D25">
         <v>150</v>
@@ -6831,7 +6831,7 @@
         <v>3</v>
       </c>
       <c r="K25">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -6842,7 +6842,7 @@
         <v>50000</v>
       </c>
       <c r="C26">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D26">
         <v>150</v>
@@ -6866,7 +6866,7 @@
         <v>3</v>
       </c>
       <c r="K26">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -6877,7 +6877,7 @@
         <v>50000</v>
       </c>
       <c r="C27">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D27">
         <v>150</v>
@@ -6901,7 +6901,7 @@
         <v>3</v>
       </c>
       <c r="K27">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -6912,7 +6912,7 @@
         <v>50000</v>
       </c>
       <c r="C28">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D28">
         <v>150</v>
@@ -6936,7 +6936,7 @@
         <v>3</v>
       </c>
       <c r="K28">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -6947,7 +6947,7 @@
         <v>50000</v>
       </c>
       <c r="C29">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D29">
         <v>150</v>
@@ -6971,7 +6971,7 @@
         <v>3</v>
       </c>
       <c r="K29">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -6982,7 +6982,7 @@
         <v>50000</v>
       </c>
       <c r="C30">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D30">
         <v>150</v>
@@ -7006,7 +7006,7 @@
         <v>3</v>
       </c>
       <c r="K30">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -7017,7 +7017,7 @@
         <v>50000</v>
       </c>
       <c r="C31">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D31">
         <v>150</v>
@@ -7041,7 +7041,7 @@
         <v>3</v>
       </c>
       <c r="K31">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -7052,7 +7052,7 @@
         <v>50000</v>
       </c>
       <c r="C32">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D32">
         <v>150</v>
@@ -7076,7 +7076,7 @@
         <v>3</v>
       </c>
       <c r="K32">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -7087,7 +7087,7 @@
         <v>50000</v>
       </c>
       <c r="C34">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D34">
         <v>150</v>
@@ -7111,7 +7111,7 @@
         <v>4</v>
       </c>
       <c r="K34">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -7122,7 +7122,7 @@
         <v>50000</v>
       </c>
       <c r="C35">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D35">
         <v>150</v>
@@ -7146,7 +7146,7 @@
         <v>4</v>
       </c>
       <c r="K35">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -7157,7 +7157,7 @@
         <v>50000</v>
       </c>
       <c r="C36">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D36">
         <v>150</v>
@@ -7181,7 +7181,7 @@
         <v>4</v>
       </c>
       <c r="K36">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -7192,7 +7192,7 @@
         <v>50000</v>
       </c>
       <c r="C37">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D37">
         <v>150</v>
@@ -7216,7 +7216,7 @@
         <v>4</v>
       </c>
       <c r="K37">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -7227,7 +7227,7 @@
         <v>50000</v>
       </c>
       <c r="C38">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D38">
         <v>150</v>
@@ -7251,7 +7251,7 @@
         <v>4</v>
       </c>
       <c r="K38">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -7262,7 +7262,7 @@
         <v>50000</v>
       </c>
       <c r="C39">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D39">
         <v>150</v>
@@ -7286,7 +7286,7 @@
         <v>4</v>
       </c>
       <c r="K39">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -7297,7 +7297,7 @@
         <v>50000</v>
       </c>
       <c r="C40">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D40">
         <v>150</v>
@@ -7321,7 +7321,7 @@
         <v>4</v>
       </c>
       <c r="K40">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -7332,7 +7332,7 @@
         <v>50000</v>
       </c>
       <c r="C41">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D41">
         <v>150</v>
@@ -7356,7 +7356,7 @@
         <v>4</v>
       </c>
       <c r="K41">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -7367,7 +7367,7 @@
         <v>50000</v>
       </c>
       <c r="C42">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D42">
         <v>150</v>
@@ -7391,7 +7391,7 @@
         <v>4</v>
       </c>
       <c r="K42">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -7402,7 +7402,7 @@
         <v>50000</v>
       </c>
       <c r="C43">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="D43">
         <v>150</v>
@@ -7426,7 +7426,7 @@
         <v>4</v>
       </c>
       <c r="K43">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7436,10 +7436,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63591A70-7D12-407F-B009-D3C34039C173}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K35" sqref="A1:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7473,7 +7473,7 @@
         <v>5</v>
       </c>
       <c r="I1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="J1">
         <v>1</v>
@@ -7508,7 +7508,7 @@
         <v>5</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -7543,7 +7543,7 @@
         <v>5</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -7578,7 +7578,7 @@
         <v>5</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -7613,7 +7613,7 @@
         <v>5</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -7826,7 +7826,7 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>100</v>
@@ -7861,7 +7861,7 @@
         <v>5</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>100</v>
@@ -7896,7 +7896,7 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>100</v>
@@ -7931,7 +7931,7 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>100</v>
@@ -7966,7 +7966,7 @@
         <v>5</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>100</v>
@@ -7998,7 +7998,7 @@
         <v>5</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -8033,7 +8033,7 @@
         <v>5</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -8068,7 +8068,7 @@
         <v>5</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -8103,7 +8103,7 @@
         <v>5</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -8138,12 +8138,362 @@
         <v>5</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J23">
         <v>4</v>
       </c>
       <c r="K23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>50000</v>
+      </c>
+      <c r="C25">
+        <v>120</v>
+      </c>
+      <c r="D25">
+        <v>150</v>
+      </c>
+      <c r="E25">
+        <v>300</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>25</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>50000</v>
+      </c>
+      <c r="C26">
+        <v>120</v>
+      </c>
+      <c r="D26">
+        <v>150</v>
+      </c>
+      <c r="E26">
+        <v>300</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>50000</v>
+      </c>
+      <c r="C27">
+        <v>120</v>
+      </c>
+      <c r="D27">
+        <v>150</v>
+      </c>
+      <c r="E27">
+        <v>300</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>50000</v>
+      </c>
+      <c r="C28">
+        <v>120</v>
+      </c>
+      <c r="D28">
+        <v>150</v>
+      </c>
+      <c r="E28">
+        <v>300</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>200</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>50000</v>
+      </c>
+      <c r="C29">
+        <v>120</v>
+      </c>
+      <c r="D29">
+        <v>150</v>
+      </c>
+      <c r="E29">
+        <v>300</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>400</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>50000</v>
+      </c>
+      <c r="C31">
+        <v>120</v>
+      </c>
+      <c r="D31">
+        <v>150</v>
+      </c>
+      <c r="E31">
+        <v>300</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>25</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>50000</v>
+      </c>
+      <c r="C32">
+        <v>120</v>
+      </c>
+      <c r="D32">
+        <v>150</v>
+      </c>
+      <c r="E32">
+        <v>300</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32">
+        <v>50</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>50000</v>
+      </c>
+      <c r="C33">
+        <v>120</v>
+      </c>
+      <c r="D33">
+        <v>150</v>
+      </c>
+      <c r="E33">
+        <v>300</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>50000</v>
+      </c>
+      <c r="C34">
+        <v>120</v>
+      </c>
+      <c r="D34">
+        <v>150</v>
+      </c>
+      <c r="E34">
+        <v>300</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>200</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>50000</v>
+      </c>
+      <c r="C35">
+        <v>120</v>
+      </c>
+      <c r="D35">
+        <v>150</v>
+      </c>
+      <c r="E35">
+        <v>300</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35">
+        <v>400</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
         <v>100</v>
       </c>
     </row>
@@ -8157,7 +8507,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="A1:K27"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
